--- a/GUI + Reviews/202512/Review 202512/Dataiku/TIND_EMS_2025-12-11_2025-12-11-23-21-55.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/TIND_EMS_2025-12-11_2025-12-11-23-21-55.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_B3AE30D6A91C9FDCC2235432D9887F37F931FCA1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3687BBFF-E98F-4B7D-ADB5-5D31D082E3C5}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1396,8 +1374,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,2182 +1438,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="TRANSATLANTIC_DLF"/>
-      <sheetName val="Index Info"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>531225040</v>
-          </cell>
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>1843899200</v>
-          </cell>
-          <cell r="E3">
-            <v>0.85</v>
-          </cell>
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>94500000</v>
-          </cell>
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>620138900</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>54856650</v>
-          </cell>
-          <cell r="E6">
-            <v>0.45</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>33157750</v>
-          </cell>
-          <cell r="E7">
-            <v>0.65</v>
-          </cell>
-          <cell r="F7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>271664580</v>
-          </cell>
-          <cell r="E8">
-            <v>0.75</v>
-          </cell>
-          <cell r="F8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>259929600</v>
-          </cell>
-          <cell r="E9">
-            <v>1</v>
-          </cell>
-          <cell r="F9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>168426560</v>
-          </cell>
-          <cell r="E10">
-            <v>0.85</v>
-          </cell>
-          <cell r="F10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>98960602</v>
-          </cell>
-          <cell r="E11">
-            <v>0.3</v>
-          </cell>
-          <cell r="F11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>31523640</v>
-          </cell>
-          <cell r="E12">
-            <v>1</v>
-          </cell>
-          <cell r="F12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>1500000000</v>
-          </cell>
-          <cell r="E13">
-            <v>0.5</v>
-          </cell>
-          <cell r="F13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>176566560</v>
-          </cell>
-          <cell r="E14">
-            <v>1</v>
-          </cell>
-          <cell r="F14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>289362760</v>
-          </cell>
-          <cell r="E15">
-            <v>1</v>
-          </cell>
-          <cell r="F15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>792283683</v>
-          </cell>
-          <cell r="E16">
-            <v>0.75</v>
-          </cell>
-          <cell r="F16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>413326320</v>
-          </cell>
-          <cell r="E17">
-            <v>0.7</v>
-          </cell>
-          <cell r="F17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>462029966</v>
-          </cell>
-          <cell r="E18">
-            <v>0.75</v>
-          </cell>
-          <cell r="F18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>2304359900</v>
-          </cell>
-          <cell r="E19">
-            <v>1</v>
-          </cell>
-          <cell r="F19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>688851600</v>
-          </cell>
-          <cell r="E20">
-            <v>0.8</v>
-          </cell>
-          <cell r="F20">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>230203870</v>
-          </cell>
-          <cell r="E21">
-            <v>1</v>
-          </cell>
-          <cell r="F21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>552735960</v>
-          </cell>
-          <cell r="E22">
-            <v>0.95</v>
-          </cell>
-          <cell r="F22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>6072390</v>
-          </cell>
-          <cell r="E23">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="F23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>419068180</v>
-          </cell>
-          <cell r="E24">
-            <v>1</v>
-          </cell>
-          <cell r="F24">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>1055050400</v>
-          </cell>
-          <cell r="E25">
-            <v>0.95</v>
-          </cell>
-          <cell r="F25">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>3357576400</v>
-          </cell>
-          <cell r="E26">
-            <v>0.75</v>
-          </cell>
-          <cell r="F26">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>404448730</v>
-          </cell>
-          <cell r="E27">
-            <v>1</v>
-          </cell>
-          <cell r="F27">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>78910470</v>
-          </cell>
-          <cell r="E28">
-            <v>1</v>
-          </cell>
-          <cell r="F28">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>499723880</v>
-          </cell>
-          <cell r="E29">
-            <v>1</v>
-          </cell>
-          <cell r="F29">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>3002789000</v>
-          </cell>
-          <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="F30">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>493377080</v>
-          </cell>
-          <cell r="E31">
-            <v>1</v>
-          </cell>
-          <cell r="F31">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>481135530</v>
-          </cell>
-          <cell r="E32">
-            <v>0.85</v>
-          </cell>
-          <cell r="F32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>12300000</v>
-          </cell>
-          <cell r="E33">
-            <v>0.8</v>
-          </cell>
-          <cell r="F33">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>37606373</v>
-          </cell>
-          <cell r="E34">
-            <v>0.9</v>
-          </cell>
-          <cell r="F34">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>547667000</v>
-          </cell>
-          <cell r="E35">
-            <v>1</v>
-          </cell>
-          <cell r="F35">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>236510760</v>
-          </cell>
-          <cell r="E36">
-            <v>1</v>
-          </cell>
-          <cell r="F36">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>760095460</v>
-          </cell>
-          <cell r="E37">
-            <v>1</v>
-          </cell>
-          <cell r="F37">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>383620188</v>
-          </cell>
-          <cell r="E38">
-            <v>0.5</v>
-          </cell>
-          <cell r="F38">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>324201480</v>
-          </cell>
-          <cell r="E39">
-            <v>1</v>
-          </cell>
-          <cell r="F39">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>453871520</v>
-          </cell>
-          <cell r="E40">
-            <v>0.75</v>
-          </cell>
-          <cell r="F40">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>192626154</v>
-          </cell>
-          <cell r="E41">
-            <v>0.4</v>
-          </cell>
-          <cell r="F41">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>118137180</v>
-          </cell>
-          <cell r="E42">
-            <v>1</v>
-          </cell>
-          <cell r="F42">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>635733600</v>
-          </cell>
-          <cell r="E43">
-            <v>1</v>
-          </cell>
-          <cell r="F43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>842209800</v>
-          </cell>
-          <cell r="E44">
-            <v>0.95</v>
-          </cell>
-          <cell r="F44">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>467979580</v>
-          </cell>
-          <cell r="E45">
-            <v>1</v>
-          </cell>
-          <cell r="F45">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>401866670</v>
-          </cell>
-          <cell r="E46">
-            <v>0.85</v>
-          </cell>
-          <cell r="F46">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>35271950</v>
-          </cell>
-          <cell r="E47">
-            <v>1</v>
-          </cell>
-          <cell r="F47">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>69958050</v>
-          </cell>
-          <cell r="E48">
-            <v>1</v>
-          </cell>
-          <cell r="F48">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>670270570</v>
-          </cell>
-          <cell r="E49">
-            <v>1</v>
-          </cell>
-          <cell r="F49">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>1862137000</v>
-          </cell>
-          <cell r="E50">
-            <v>1</v>
-          </cell>
-          <cell r="F50">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>138036250</v>
-          </cell>
-          <cell r="E51">
-            <v>1</v>
-          </cell>
-          <cell r="F51">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>36874638</v>
-          </cell>
-          <cell r="E52">
-            <v>1</v>
-          </cell>
-          <cell r="F52">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>765600400</v>
-          </cell>
-          <cell r="E53">
-            <v>0.6</v>
-          </cell>
-          <cell r="F53">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>78397034</v>
-          </cell>
-          <cell r="E54">
-            <v>0.25</v>
-          </cell>
-          <cell r="F54">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>96896330</v>
-          </cell>
-          <cell r="E55">
-            <v>1</v>
-          </cell>
-          <cell r="F55">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>270329400</v>
-          </cell>
-          <cell r="E56">
-            <v>0.95</v>
-          </cell>
-          <cell r="F56">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>1200000000</v>
-          </cell>
-          <cell r="E57">
-            <v>0.85</v>
-          </cell>
-          <cell r="F57">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>134317400</v>
-          </cell>
-          <cell r="E58">
-            <v>1</v>
-          </cell>
-          <cell r="F58">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>137153230</v>
-          </cell>
-          <cell r="E59">
-            <v>1</v>
-          </cell>
-          <cell r="F59">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>240444520</v>
-          </cell>
-          <cell r="E60">
-            <v>0.8</v>
-          </cell>
-          <cell r="F60">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>388400000</v>
-          </cell>
-          <cell r="E61">
-            <v>1</v>
-          </cell>
-          <cell r="F61">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>239891064</v>
-          </cell>
-          <cell r="E62">
-            <v>1</v>
-          </cell>
-          <cell r="F62">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>98000000</v>
-          </cell>
-          <cell r="E63">
-            <v>0.75</v>
-          </cell>
-          <cell r="F63">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>237553695</v>
-          </cell>
-          <cell r="E64">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="F64">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>44765865</v>
-          </cell>
-          <cell r="E65">
-            <v>1</v>
-          </cell>
-          <cell r="F65">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>561800000</v>
-          </cell>
-          <cell r="E66">
-            <v>1</v>
-          </cell>
-          <cell r="F66">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>823765800</v>
-          </cell>
-          <cell r="E67">
-            <v>0.75</v>
-          </cell>
-          <cell r="F67">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>122394035</v>
-          </cell>
-          <cell r="E68">
-            <v>1</v>
-          </cell>
-          <cell r="F68">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>134020940</v>
-          </cell>
-          <cell r="E69">
-            <v>1</v>
-          </cell>
-          <cell r="F69">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>917626040</v>
-          </cell>
-          <cell r="E70">
-            <v>1</v>
-          </cell>
-          <cell r="F70">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>23709047</v>
-          </cell>
-          <cell r="E71">
-            <v>1</v>
-          </cell>
-          <cell r="F71">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>235955460</v>
-          </cell>
-          <cell r="E72">
-            <v>0.95</v>
-          </cell>
-          <cell r="F72">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>196151440</v>
-          </cell>
-          <cell r="E73">
-            <v>1</v>
-          </cell>
-          <cell r="F73">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>733755400</v>
-          </cell>
-          <cell r="E74">
-            <v>0.65</v>
-          </cell>
-          <cell r="F74">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>517850770</v>
-          </cell>
-          <cell r="E75">
-            <v>1</v>
-          </cell>
-          <cell r="F75">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>537851870</v>
-          </cell>
-          <cell r="E76">
-            <v>1</v>
-          </cell>
-          <cell r="F76">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77">
-            <v>30701876</v>
-          </cell>
-          <cell r="E77">
-            <v>0.6</v>
-          </cell>
-          <cell r="F77">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78">
-            <v>1054814000</v>
-          </cell>
-          <cell r="E78">
-            <v>1</v>
-          </cell>
-          <cell r="F78">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79">
-            <v>271320470</v>
-          </cell>
-          <cell r="E79">
-            <v>1</v>
-          </cell>
-          <cell r="F79">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80">
-            <v>162801670</v>
-          </cell>
-          <cell r="E80">
-            <v>0.9</v>
-          </cell>
-          <cell r="F80">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81">
-            <v>33922405</v>
-          </cell>
-          <cell r="E81">
-            <v>1</v>
-          </cell>
-          <cell r="F81">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>270120450</v>
-          </cell>
-          <cell r="E82">
-            <v>0.9</v>
-          </cell>
-          <cell r="F82">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83">
-            <v>82017960</v>
-          </cell>
-          <cell r="E83">
-            <v>0.95</v>
-          </cell>
-          <cell r="F83">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84">
-            <v>550000000</v>
-          </cell>
-          <cell r="E84">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="F84">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85">
-            <v>236743710</v>
-          </cell>
-          <cell r="E85">
-            <v>1</v>
-          </cell>
-          <cell r="F85">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>379645360</v>
-          </cell>
-          <cell r="E86">
-            <v>1</v>
-          </cell>
-          <cell r="F86">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87">
-            <v>178430760</v>
-          </cell>
-          <cell r="E87">
-            <v>0.7</v>
-          </cell>
-          <cell r="F87">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>115500000</v>
-          </cell>
-          <cell r="E88">
-            <v>0.5</v>
-          </cell>
-          <cell r="F88">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>77711300</v>
-          </cell>
-          <cell r="E89">
-            <v>0.2</v>
-          </cell>
-          <cell r="F89">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>566875500</v>
-          </cell>
-          <cell r="E90">
-            <v>0.95</v>
-          </cell>
-          <cell r="F90">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>634887200</v>
-          </cell>
-          <cell r="E91">
-            <v>1</v>
-          </cell>
-          <cell r="F91">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>402062260</v>
-          </cell>
-          <cell r="E92">
-            <v>1</v>
-          </cell>
-          <cell r="F92">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>53144753</v>
-          </cell>
-          <cell r="E93">
-            <v>1</v>
-          </cell>
-          <cell r="F93">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>290100000</v>
-          </cell>
-          <cell r="E94">
-            <v>0.9</v>
-          </cell>
-          <cell r="F94">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>247004140</v>
-          </cell>
-          <cell r="E95">
-            <v>1</v>
-          </cell>
-          <cell r="F95">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96">
-            <v>364323000</v>
-          </cell>
-          <cell r="E96">
-            <v>0.75</v>
-          </cell>
-          <cell r="F96">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97">
-            <v>395110380</v>
-          </cell>
-          <cell r="E97">
-            <v>1</v>
-          </cell>
-          <cell r="F97">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98">
-            <v>108879294</v>
-          </cell>
-          <cell r="E98">
-            <v>0.75</v>
-          </cell>
-          <cell r="F98">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99">
-            <v>154406330</v>
-          </cell>
-          <cell r="E99">
-            <v>1</v>
-          </cell>
-          <cell r="F99">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100">
-            <v>174200000</v>
-          </cell>
-          <cell r="E100">
-            <v>0.85</v>
-          </cell>
-          <cell r="F100">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101">
-            <v>271215400</v>
-          </cell>
-          <cell r="E101">
-            <v>0.65</v>
-          </cell>
-          <cell r="F101">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="D102">
-            <v>611135700</v>
-          </cell>
-          <cell r="E102">
-            <v>1</v>
-          </cell>
-          <cell r="F102">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103">
-            <v>171856250</v>
-          </cell>
-          <cell r="E103">
-            <v>1</v>
-          </cell>
-          <cell r="F103">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="D104">
-            <v>180396053</v>
-          </cell>
-          <cell r="E104">
-            <v>0.85000000000000009</v>
-          </cell>
-          <cell r="F104">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="D105">
-            <v>131198650</v>
-          </cell>
-          <cell r="E105">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="F105">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="D106">
-            <v>161200000</v>
-          </cell>
-          <cell r="E106">
-            <v>0.4</v>
-          </cell>
-          <cell r="F106">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="D107">
-            <v>453187130</v>
-          </cell>
-          <cell r="E107">
-            <v>0.85</v>
-          </cell>
-          <cell r="F107">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="D108">
-            <v>79221900</v>
-          </cell>
-          <cell r="E108">
-            <v>0.9</v>
-          </cell>
-          <cell r="F108">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="D109">
-            <v>879609245</v>
-          </cell>
-          <cell r="E109">
-            <v>0.5</v>
-          </cell>
-          <cell r="F109">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="D110">
-            <v>120753784</v>
-          </cell>
-          <cell r="E110">
-            <v>0.45</v>
-          </cell>
-          <cell r="F110">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="D111">
-            <v>187052840</v>
-          </cell>
-          <cell r="E111">
-            <v>1</v>
-          </cell>
-          <cell r="F111">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="D112">
-            <v>262245733</v>
-          </cell>
-          <cell r="E112">
-            <v>1</v>
-          </cell>
-          <cell r="F112">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="D113">
-            <v>578150395</v>
-          </cell>
-          <cell r="E113">
-            <v>0.70000000000000007</v>
-          </cell>
-          <cell r="F113">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="D114">
-            <v>423836460</v>
-          </cell>
-          <cell r="E114">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="F114">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="D115">
-            <v>231397800</v>
-          </cell>
-          <cell r="E115">
-            <v>1</v>
-          </cell>
-          <cell r="F115">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="D116">
-            <v>60307144</v>
-          </cell>
-          <cell r="E116">
-            <v>1</v>
-          </cell>
-          <cell r="F116">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="D117">
-            <v>891258200</v>
-          </cell>
-          <cell r="E117">
-            <v>0.9</v>
-          </cell>
-          <cell r="F117">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="D118">
-            <v>1262030000</v>
-          </cell>
-          <cell r="E118">
-            <v>0.95</v>
-          </cell>
-          <cell r="F118">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="D119">
-            <v>828972400</v>
-          </cell>
-          <cell r="E119">
-            <v>0.75</v>
-          </cell>
-          <cell r="F119">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="D120">
-            <v>20428446</v>
-          </cell>
-          <cell r="E120">
-            <v>1</v>
-          </cell>
-          <cell r="F120">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="D121">
-            <v>441412540</v>
-          </cell>
-          <cell r="E121">
-            <v>0.95</v>
-          </cell>
-          <cell r="F121">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="D122">
-            <v>53824490</v>
-          </cell>
-          <cell r="E122">
-            <v>1</v>
-          </cell>
-          <cell r="F122">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="D123">
-            <v>43744779</v>
-          </cell>
-          <cell r="E123">
-            <v>0.85000000000000009</v>
-          </cell>
-          <cell r="F123">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="D124">
-            <v>1782936200</v>
-          </cell>
-          <cell r="E124">
-            <v>1</v>
-          </cell>
-          <cell r="F124">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="D125">
-            <v>53720043</v>
-          </cell>
-          <cell r="E125">
-            <v>1</v>
-          </cell>
-          <cell r="F125">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="D126">
-            <v>244708450</v>
-          </cell>
-          <cell r="E126">
-            <v>1</v>
-          </cell>
-          <cell r="F126">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="D127">
-            <v>142720060</v>
-          </cell>
-          <cell r="E127">
-            <v>1</v>
-          </cell>
-          <cell r="F127">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="D128">
-            <v>209098430</v>
-          </cell>
-          <cell r="E128">
-            <v>0.85</v>
-          </cell>
-          <cell r="F128">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="D129">
-            <v>389715850</v>
-          </cell>
-          <cell r="E129">
-            <v>1</v>
-          </cell>
-          <cell r="F129">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="D130">
-            <v>525204350</v>
-          </cell>
-          <cell r="E130">
-            <v>1</v>
-          </cell>
-          <cell r="F130">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="D131">
-            <v>89977066</v>
-          </cell>
-          <cell r="E131">
-            <v>1</v>
-          </cell>
-          <cell r="F131">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="D132">
-            <v>126186700</v>
-          </cell>
-          <cell r="E132">
-            <v>1</v>
-          </cell>
-          <cell r="F132">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="D133">
-            <v>359894130</v>
-          </cell>
-          <cell r="E133">
-            <v>0.9</v>
-          </cell>
-          <cell r="F133">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="D134">
-            <v>935652000</v>
-          </cell>
-          <cell r="E134">
-            <v>1</v>
-          </cell>
-          <cell r="F134">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="D135">
-            <v>163641880</v>
-          </cell>
-          <cell r="E135">
-            <v>1</v>
-          </cell>
-          <cell r="F135">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="D136">
-            <v>224400000</v>
-          </cell>
-          <cell r="E136">
-            <v>1</v>
-          </cell>
-          <cell r="F136">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="D137">
-            <v>296401348</v>
-          </cell>
-          <cell r="E137">
-            <v>1</v>
-          </cell>
-          <cell r="F137">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="D138">
-            <v>149115890</v>
-          </cell>
-          <cell r="E138">
-            <v>1</v>
-          </cell>
-          <cell r="F138">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="D139">
-            <v>175977424</v>
-          </cell>
-          <cell r="E139">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="F139">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="D140">
-            <v>100000000</v>
-          </cell>
-          <cell r="E140">
-            <v>0.85</v>
-          </cell>
-          <cell r="F140">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="D141">
-            <v>2526039800</v>
-          </cell>
-          <cell r="E141">
-            <v>1</v>
-          </cell>
-          <cell r="F141">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="D142">
-            <v>299036619</v>
-          </cell>
-          <cell r="E142">
-            <v>0.75</v>
-          </cell>
-          <cell r="F142">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="D143">
-            <v>46002533</v>
-          </cell>
-          <cell r="E143">
-            <v>1</v>
-          </cell>
-          <cell r="F143">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="D144">
-            <v>534156300</v>
-          </cell>
-          <cell r="E144">
-            <v>0.95</v>
-          </cell>
-          <cell r="F144">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="D145">
-            <v>112273570</v>
-          </cell>
-          <cell r="E145">
-            <v>1</v>
-          </cell>
-          <cell r="F145">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="D146">
-            <v>8402325000</v>
-          </cell>
-          <cell r="E146">
-            <v>1</v>
-          </cell>
-          <cell r="F146">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="D147">
-            <v>1340772000</v>
-          </cell>
-          <cell r="E147">
-            <v>1</v>
-          </cell>
-          <cell r="F147">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="D148">
-            <v>533847800</v>
-          </cell>
-          <cell r="E148">
-            <v>0.6</v>
-          </cell>
-          <cell r="F148">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="D149">
-            <v>423632587</v>
-          </cell>
-          <cell r="E149">
-            <v>0.75</v>
-          </cell>
-          <cell r="F149">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="D150">
-            <v>499067417</v>
-          </cell>
-          <cell r="E150">
-            <v>0.9</v>
-          </cell>
-          <cell r="F150">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="D151">
-            <v>1254385900</v>
-          </cell>
-          <cell r="E151">
-            <v>0.85</v>
-          </cell>
-          <cell r="F151">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="D152">
-            <v>40716830</v>
-          </cell>
-          <cell r="E152">
-            <v>1</v>
-          </cell>
-          <cell r="F152">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="D153">
-            <v>577122512</v>
-          </cell>
-          <cell r="E153">
-            <v>1</v>
-          </cell>
-          <cell r="F153">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="D154">
-            <v>546454160</v>
-          </cell>
-          <cell r="E154">
-            <v>0.9</v>
-          </cell>
-          <cell r="F154">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="D155">
-            <v>1004924200</v>
-          </cell>
-          <cell r="E155">
-            <v>1</v>
-          </cell>
-          <cell r="F155">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="D156">
-            <v>194777280</v>
-          </cell>
-          <cell r="E156">
-            <v>0.85</v>
-          </cell>
-          <cell r="F156">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="D157">
-            <v>247893510</v>
-          </cell>
-          <cell r="E157">
-            <v>0.95</v>
-          </cell>
-          <cell r="F157">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="D158">
-            <v>800000000</v>
-          </cell>
-          <cell r="E158">
-            <v>0.95</v>
-          </cell>
-          <cell r="F158">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="D159">
-            <v>382270870</v>
-          </cell>
-          <cell r="E159">
-            <v>0.8</v>
-          </cell>
-          <cell r="F159">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="D160">
-            <v>160479300</v>
-          </cell>
-          <cell r="E160">
-            <v>1</v>
-          </cell>
-          <cell r="F160">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="D161">
-            <v>400377200</v>
-          </cell>
-          <cell r="E161">
-            <v>0.95</v>
-          </cell>
-          <cell r="F161">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="D162">
-            <v>324639300</v>
-          </cell>
-          <cell r="E162">
-            <v>1</v>
-          </cell>
-          <cell r="F162">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="D163">
-            <v>522186340</v>
-          </cell>
-          <cell r="E163">
-            <v>1</v>
-          </cell>
-          <cell r="F163">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="D164">
-            <v>52007557</v>
-          </cell>
-          <cell r="E164">
-            <v>1</v>
-          </cell>
-          <cell r="F164">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="D165">
-            <v>168073514</v>
-          </cell>
-          <cell r="E165">
-            <v>0.9</v>
-          </cell>
-          <cell r="F165">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="D166">
-            <v>73776050</v>
-          </cell>
-          <cell r="E166">
-            <v>1</v>
-          </cell>
-          <cell r="F166">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="D167">
-            <v>360171100</v>
-          </cell>
-          <cell r="E167">
-            <v>1</v>
-          </cell>
-          <cell r="F167">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="D168">
-            <v>46950990</v>
-          </cell>
-          <cell r="E168">
-            <v>1</v>
-          </cell>
-          <cell r="F168">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="D169">
-            <v>59874365</v>
-          </cell>
-          <cell r="E169">
-            <v>1</v>
-          </cell>
-          <cell r="F169">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="D170">
-            <v>205941913</v>
-          </cell>
-          <cell r="E170">
-            <v>0.45</v>
-          </cell>
-          <cell r="F170">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="D171">
-            <v>622531741</v>
-          </cell>
-          <cell r="E171">
-            <v>0.8</v>
-          </cell>
-          <cell r="F171">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="D172">
-            <v>63523647</v>
-          </cell>
-          <cell r="E172">
-            <v>1</v>
-          </cell>
-          <cell r="F172">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="D173">
-            <v>221739000</v>
-          </cell>
-          <cell r="E173">
-            <v>1</v>
-          </cell>
-          <cell r="F173">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="D174">
-            <v>56318584</v>
-          </cell>
-          <cell r="E174">
-            <v>1</v>
-          </cell>
-          <cell r="F174">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="D175">
-            <v>202828370</v>
-          </cell>
-          <cell r="E175">
-            <v>1</v>
-          </cell>
-          <cell r="F175">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="D176">
-            <v>237920960</v>
-          </cell>
-          <cell r="E176">
-            <v>1</v>
-          </cell>
-          <cell r="F176">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="D177">
-            <v>593160900</v>
-          </cell>
-          <cell r="E177">
-            <v>1</v>
-          </cell>
-          <cell r="F177">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="D178">
-            <v>63630146</v>
-          </cell>
-          <cell r="E178">
-            <v>1</v>
-          </cell>
-          <cell r="F178">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="D179">
-            <v>738990050</v>
-          </cell>
-          <cell r="E179">
-            <v>1</v>
-          </cell>
-          <cell r="F179">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="D180">
-            <v>184529605</v>
-          </cell>
-          <cell r="E180">
-            <v>0.8</v>
-          </cell>
-          <cell r="F180">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="D181">
-            <v>30000000</v>
-          </cell>
-          <cell r="E181">
-            <v>0.9</v>
-          </cell>
-          <cell r="F181">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="D182">
-            <v>248297350</v>
-          </cell>
-          <cell r="E182">
-            <v>1</v>
-          </cell>
-          <cell r="F182">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="D183">
-            <v>139372570</v>
-          </cell>
-          <cell r="E183">
-            <v>1</v>
-          </cell>
-          <cell r="F183">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="D184">
-            <v>586933775</v>
-          </cell>
-          <cell r="E184">
-            <v>0.9</v>
-          </cell>
-          <cell r="F184">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="D185">
-            <v>1687629800</v>
-          </cell>
-          <cell r="E185">
-            <v>1</v>
-          </cell>
-          <cell r="F185">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="D186">
-            <v>1588953400</v>
-          </cell>
-          <cell r="E186">
-            <v>1</v>
-          </cell>
-          <cell r="F186">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="D187">
-            <v>132130900</v>
-          </cell>
-          <cell r="E187">
-            <v>1</v>
-          </cell>
-          <cell r="F187">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="D188">
-            <v>47549335</v>
-          </cell>
-          <cell r="E188">
-            <v>0.95</v>
-          </cell>
-          <cell r="F188">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="D189">
-            <v>591723400</v>
-          </cell>
-          <cell r="E189">
-            <v>0.8</v>
-          </cell>
-          <cell r="F189">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="D190">
-            <v>259612060</v>
-          </cell>
-          <cell r="E190">
-            <v>1</v>
-          </cell>
-          <cell r="F190">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="D191">
-            <v>170957180</v>
-          </cell>
-          <cell r="E191">
-            <v>1</v>
-          </cell>
-          <cell r="F191">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="D192">
-            <v>109497696</v>
-          </cell>
-          <cell r="E192">
-            <v>1</v>
-          </cell>
-          <cell r="F192">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="D193">
-            <v>1025000200</v>
-          </cell>
-          <cell r="E193">
-            <v>0.65</v>
-          </cell>
-          <cell r="F193">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="D194">
-            <v>232516153</v>
-          </cell>
-          <cell r="E194">
-            <v>1</v>
-          </cell>
-          <cell r="F194">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="D195">
-            <v>243469070</v>
-          </cell>
-          <cell r="E195">
-            <v>1</v>
-          </cell>
-          <cell r="F195">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3673,7 +1482,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3707,7 +1516,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3742,10 +1550,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3918,19 +1725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3981,20 +1783,8 @@
       <c r="H2" t="s">
         <v>414</v>
       </c>
-      <c r="I2" t="b">
-        <f>D2='[1]Index Composition'!D2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <f>E2='[1]Index Composition'!E2</f>
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <f>F2='[1]Index Composition'!F2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4019,20 +1809,8 @@
       <c r="H3" t="s">
         <v>415</v>
       </c>
-      <c r="I3" t="b">
-        <f>D3='[1]Index Composition'!D3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <f>E3='[1]Index Composition'!E3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <f>F3='[1]Index Composition'!F3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4057,20 +1835,8 @@
       <c r="H4" t="s">
         <v>415</v>
       </c>
-      <c r="I4" t="b">
-        <f>D4='[1]Index Composition'!D4</f>
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <f>E4='[1]Index Composition'!E4</f>
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <f>F4='[1]Index Composition'!F4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4095,20 +1861,8 @@
       <c r="H5" t="s">
         <v>414</v>
       </c>
-      <c r="I5" t="b">
-        <f>D5='[1]Index Composition'!D5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <f>E5='[1]Index Composition'!E5</f>
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <f>F5='[1]Index Composition'!F5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4133,20 +1887,8 @@
       <c r="H6" t="s">
         <v>416</v>
       </c>
-      <c r="I6" t="b">
-        <f>D6='[1]Index Composition'!D6</f>
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <f>E6='[1]Index Composition'!E6</f>
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <f>F6='[1]Index Composition'!F6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4171,20 +1913,8 @@
       <c r="H7" t="s">
         <v>416</v>
       </c>
-      <c r="I7" t="b">
-        <f>D7='[1]Index Composition'!D7</f>
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <f>E7='[1]Index Composition'!E7</f>
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <f>F7='[1]Index Composition'!F7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4209,20 +1939,8 @@
       <c r="H8" t="s">
         <v>416</v>
       </c>
-      <c r="I8" t="b">
-        <f>D8='[1]Index Composition'!D8</f>
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <f>E8='[1]Index Composition'!E8</f>
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <f>F8='[1]Index Composition'!F8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4247,20 +1965,8 @@
       <c r="H9" t="s">
         <v>417</v>
       </c>
-      <c r="I9" t="b">
-        <f>D9='[1]Index Composition'!D9</f>
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <f>E9='[1]Index Composition'!E9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <f>F9='[1]Index Composition'!F9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4285,20 +1991,8 @@
       <c r="H10" t="s">
         <v>415</v>
       </c>
-      <c r="I10" t="b">
-        <f>D10='[1]Index Composition'!D10</f>
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <f>E10='[1]Index Composition'!E10</f>
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <f>F10='[1]Index Composition'!F10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4323,20 +2017,8 @@
       <c r="H11" t="s">
         <v>416</v>
       </c>
-      <c r="I11" t="b">
-        <f>D11='[1]Index Composition'!D11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <f>E11='[1]Index Composition'!E11</f>
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <f>F11='[1]Index Composition'!F11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4361,20 +2043,8 @@
       <c r="H12" t="s">
         <v>416</v>
       </c>
-      <c r="I12" t="b">
-        <f>D12='[1]Index Composition'!D12</f>
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <f>E12='[1]Index Composition'!E12</f>
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <f>F12='[1]Index Composition'!F12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4399,20 +2069,8 @@
       <c r="H13" t="s">
         <v>416</v>
       </c>
-      <c r="I13" t="b">
-        <f>D13='[1]Index Composition'!D13</f>
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <f>E13='[1]Index Composition'!E13</f>
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <f>F13='[1]Index Composition'!F13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4437,20 +2095,8 @@
       <c r="H14" t="s">
         <v>414</v>
       </c>
-      <c r="I14" t="b">
-        <f>D14='[1]Index Composition'!D14</f>
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <f>E14='[1]Index Composition'!E14</f>
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <f>F14='[1]Index Composition'!F14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4475,20 +2121,8 @@
       <c r="H15" t="s">
         <v>414</v>
       </c>
-      <c r="I15" t="b">
-        <f>D15='[1]Index Composition'!D15</f>
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <f>E15='[1]Index Composition'!E15</f>
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <f>F15='[1]Index Composition'!F15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4513,20 +2147,8 @@
       <c r="H16" t="s">
         <v>416</v>
       </c>
-      <c r="I16" t="b">
-        <f>D16='[1]Index Composition'!D16</f>
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <f>E16='[1]Index Composition'!E16</f>
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <f>F16='[1]Index Composition'!F16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4551,20 +2173,8 @@
       <c r="H17" t="s">
         <v>417</v>
       </c>
-      <c r="I17" t="b">
-        <f>D17='[1]Index Composition'!D17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <f>E17='[1]Index Composition'!E17</f>
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <f>F17='[1]Index Composition'!F17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4589,20 +2199,8 @@
       <c r="H18" t="s">
         <v>416</v>
       </c>
-      <c r="I18" t="b">
-        <f>D18='[1]Index Composition'!D18</f>
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <f>E18='[1]Index Composition'!E18</f>
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <f>F18='[1]Index Composition'!F18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4627,20 +2225,8 @@
       <c r="H19" t="s">
         <v>414</v>
       </c>
-      <c r="I19" t="b">
-        <f>D19='[1]Index Composition'!D19</f>
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <f>E19='[1]Index Composition'!E19</f>
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <f>F19='[1]Index Composition'!F19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4665,20 +2251,8 @@
       <c r="H20" t="s">
         <v>414</v>
       </c>
-      <c r="I20" t="b">
-        <f>D20='[1]Index Composition'!D20</f>
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <f>E20='[1]Index Composition'!E20</f>
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <f>F20='[1]Index Composition'!F20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4703,20 +2277,8 @@
       <c r="H21" t="s">
         <v>414</v>
       </c>
-      <c r="I21" t="b">
-        <f>D21='[1]Index Composition'!D21</f>
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <f>E21='[1]Index Composition'!E21</f>
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <f>F21='[1]Index Composition'!F21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4741,20 +2303,8 @@
       <c r="H22" t="s">
         <v>414</v>
       </c>
-      <c r="I22" t="b">
-        <f>D22='[1]Index Composition'!D22</f>
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <f>E22='[1]Index Composition'!E22</f>
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <f>F22='[1]Index Composition'!F22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -4768,7 +2318,7 @@
         <v>6072390</v>
       </c>
       <c r="E23">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4779,20 +2329,8 @@
       <c r="H23" t="s">
         <v>418</v>
       </c>
-      <c r="I23" t="b">
-        <f>D23='[1]Index Composition'!D23</f>
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <f>E23='[1]Index Composition'!E23</f>
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <f>F23='[1]Index Composition'!F23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4817,20 +2355,8 @@
       <c r="H24" t="s">
         <v>419</v>
       </c>
-      <c r="I24" t="b">
-        <f>D24='[1]Index Composition'!D24</f>
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <f>E24='[1]Index Composition'!E24</f>
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <f>F24='[1]Index Composition'!F24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4855,20 +2381,8 @@
       <c r="H25" t="s">
         <v>417</v>
       </c>
-      <c r="I25" t="b">
-        <f>D25='[1]Index Composition'!D25</f>
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <f>E25='[1]Index Composition'!E25</f>
-        <v>1</v>
-      </c>
-      <c r="K25" t="b">
-        <f>F25='[1]Index Composition'!F25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4893,20 +2407,8 @@
       <c r="H26" t="s">
         <v>417</v>
       </c>
-      <c r="I26" t="b">
-        <f>D26='[1]Index Composition'!D26</f>
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <f>E26='[1]Index Composition'!E26</f>
-        <v>1</v>
-      </c>
-      <c r="K26" t="b">
-        <f>F26='[1]Index Composition'!F26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4931,20 +2433,8 @@
       <c r="H27" t="s">
         <v>414</v>
       </c>
-      <c r="I27" t="b">
-        <f>D27='[1]Index Composition'!D27</f>
-        <v>1</v>
-      </c>
-      <c r="J27" t="b">
-        <f>E27='[1]Index Composition'!E27</f>
-        <v>1</v>
-      </c>
-      <c r="K27" t="b">
-        <f>F27='[1]Index Composition'!F27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4969,20 +2459,8 @@
       <c r="H28" t="s">
         <v>414</v>
       </c>
-      <c r="I28" t="b">
-        <f>D28='[1]Index Composition'!D28</f>
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <f>E28='[1]Index Composition'!E28</f>
-        <v>1</v>
-      </c>
-      <c r="K28" t="b">
-        <f>F28='[1]Index Composition'!F28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5007,20 +2485,8 @@
       <c r="H29" t="s">
         <v>419</v>
       </c>
-      <c r="I29" t="b">
-        <f>D29='[1]Index Composition'!D29</f>
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <f>E29='[1]Index Composition'!E29</f>
-        <v>1</v>
-      </c>
-      <c r="K29" t="b">
-        <f>F29='[1]Index Composition'!F29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5045,20 +2511,8 @@
       <c r="H30" t="s">
         <v>419</v>
       </c>
-      <c r="I30" t="b">
-        <f>D30='[1]Index Composition'!D30</f>
-        <v>1</v>
-      </c>
-      <c r="J30" t="b">
-        <f>E30='[1]Index Composition'!E30</f>
-        <v>1</v>
-      </c>
-      <c r="K30" t="b">
-        <f>F30='[1]Index Composition'!F30</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -5083,20 +2537,8 @@
       <c r="H31" t="s">
         <v>419</v>
       </c>
-      <c r="I31" t="b">
-        <f>D31='[1]Index Composition'!D31</f>
-        <v>1</v>
-      </c>
-      <c r="J31" t="b">
-        <f>E31='[1]Index Composition'!E31</f>
-        <v>1</v>
-      </c>
-      <c r="K31" t="b">
-        <f>F31='[1]Index Composition'!F31</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -5121,20 +2563,8 @@
       <c r="H32" t="s">
         <v>417</v>
       </c>
-      <c r="I32" t="b">
-        <f>D32='[1]Index Composition'!D32</f>
-        <v>1</v>
-      </c>
-      <c r="J32" t="b">
-        <f>E32='[1]Index Composition'!E32</f>
-        <v>1</v>
-      </c>
-      <c r="K32" t="b">
-        <f>F32='[1]Index Composition'!F32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -5159,20 +2589,8 @@
       <c r="H33" t="s">
         <v>415</v>
       </c>
-      <c r="I33" t="b">
-        <f>D33='[1]Index Composition'!D33</f>
-        <v>1</v>
-      </c>
-      <c r="J33" t="b">
-        <f>E33='[1]Index Composition'!E33</f>
-        <v>1</v>
-      </c>
-      <c r="K33" t="b">
-        <f>F33='[1]Index Composition'!F33</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -5197,20 +2615,8 @@
       <c r="H34" t="s">
         <v>416</v>
       </c>
-      <c r="I34" t="b">
-        <f>D34='[1]Index Composition'!D34</f>
-        <v>1</v>
-      </c>
-      <c r="J34" t="b">
-        <f>E34='[1]Index Composition'!E34</f>
-        <v>1</v>
-      </c>
-      <c r="K34" t="b">
-        <f>F34='[1]Index Composition'!F34</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -5235,20 +2641,8 @@
       <c r="H35" t="s">
         <v>414</v>
       </c>
-      <c r="I35" t="b">
-        <f>D35='[1]Index Composition'!D35</f>
-        <v>1</v>
-      </c>
-      <c r="J35" t="b">
-        <f>E35='[1]Index Composition'!E35</f>
-        <v>1</v>
-      </c>
-      <c r="K35" t="b">
-        <f>F35='[1]Index Composition'!F35</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -5273,20 +2667,8 @@
       <c r="H36" t="s">
         <v>414</v>
       </c>
-      <c r="I36" t="b">
-        <f>D36='[1]Index Composition'!D36</f>
-        <v>1</v>
-      </c>
-      <c r="J36" t="b">
-        <f>E36='[1]Index Composition'!E36</f>
-        <v>1</v>
-      </c>
-      <c r="K36" t="b">
-        <f>F36='[1]Index Composition'!F36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -5311,20 +2693,8 @@
       <c r="H37" t="s">
         <v>414</v>
       </c>
-      <c r="I37" t="b">
-        <f>D37='[1]Index Composition'!D37</f>
-        <v>1</v>
-      </c>
-      <c r="J37" t="b">
-        <f>E37='[1]Index Composition'!E37</f>
-        <v>1</v>
-      </c>
-      <c r="K37" t="b">
-        <f>F37='[1]Index Composition'!F37</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -5349,20 +2719,8 @@
       <c r="H38" t="s">
         <v>416</v>
       </c>
-      <c r="I38" t="b">
-        <f>D38='[1]Index Composition'!D38</f>
-        <v>1</v>
-      </c>
-      <c r="J38" t="b">
-        <f>E38='[1]Index Composition'!E38</f>
-        <v>1</v>
-      </c>
-      <c r="K38" t="b">
-        <f>F38='[1]Index Composition'!F38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5387,20 +2745,8 @@
       <c r="H39" t="s">
         <v>419</v>
       </c>
-      <c r="I39" t="b">
-        <f>D39='[1]Index Composition'!D39</f>
-        <v>1</v>
-      </c>
-      <c r="J39" t="b">
-        <f>E39='[1]Index Composition'!E39</f>
-        <v>1</v>
-      </c>
-      <c r="K39" t="b">
-        <f>F39='[1]Index Composition'!F39</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -5425,20 +2771,8 @@
       <c r="H40" t="s">
         <v>416</v>
       </c>
-      <c r="I40" t="b">
-        <f>D40='[1]Index Composition'!D40</f>
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <f>E40='[1]Index Composition'!E40</f>
-        <v>1</v>
-      </c>
-      <c r="K40" t="b">
-        <f>F40='[1]Index Composition'!F40</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5463,20 +2797,8 @@
       <c r="H41" t="s">
         <v>416</v>
       </c>
-      <c r="I41" t="b">
-        <f>D41='[1]Index Composition'!D41</f>
-        <v>1</v>
-      </c>
-      <c r="J41" t="b">
-        <f>E41='[1]Index Composition'!E41</f>
-        <v>1</v>
-      </c>
-      <c r="K41" t="b">
-        <f>F41='[1]Index Composition'!F41</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5501,20 +2823,8 @@
       <c r="H42" t="s">
         <v>414</v>
       </c>
-      <c r="I42" t="b">
-        <f>D42='[1]Index Composition'!D42</f>
-        <v>1</v>
-      </c>
-      <c r="J42" t="b">
-        <f>E42='[1]Index Composition'!E42</f>
-        <v>1</v>
-      </c>
-      <c r="K42" t="b">
-        <f>F42='[1]Index Composition'!F42</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5539,20 +2849,8 @@
       <c r="H43" t="s">
         <v>414</v>
       </c>
-      <c r="I43" t="b">
-        <f>D43='[1]Index Composition'!D43</f>
-        <v>1</v>
-      </c>
-      <c r="J43" t="b">
-        <f>E43='[1]Index Composition'!E43</f>
-        <v>1</v>
-      </c>
-      <c r="K43" t="b">
-        <f>F43='[1]Index Composition'!F43</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5577,20 +2875,8 @@
       <c r="H44" t="s">
         <v>414</v>
       </c>
-      <c r="I44" t="b">
-        <f>D44='[1]Index Composition'!D44</f>
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <f>E44='[1]Index Composition'!E44</f>
-        <v>1</v>
-      </c>
-      <c r="K44" t="b">
-        <f>F44='[1]Index Composition'!F44</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5615,20 +2901,8 @@
       <c r="H45" t="s">
         <v>414</v>
       </c>
-      <c r="I45" t="b">
-        <f>D45='[1]Index Composition'!D45</f>
-        <v>1</v>
-      </c>
-      <c r="J45" t="b">
-        <f>E45='[1]Index Composition'!E45</f>
-        <v>1</v>
-      </c>
-      <c r="K45" t="b">
-        <f>F45='[1]Index Composition'!F45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -5653,20 +2927,8 @@
       <c r="H46" t="s">
         <v>414</v>
       </c>
-      <c r="I46" t="b">
-        <f>D46='[1]Index Composition'!D46</f>
-        <v>1</v>
-      </c>
-      <c r="J46" t="b">
-        <f>E46='[1]Index Composition'!E46</f>
-        <v>1</v>
-      </c>
-      <c r="K46" t="b">
-        <f>F46='[1]Index Composition'!F46</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -5691,20 +2953,8 @@
       <c r="H47" t="s">
         <v>414</v>
       </c>
-      <c r="I47" t="b">
-        <f>D47='[1]Index Composition'!D47</f>
-        <v>1</v>
-      </c>
-      <c r="J47" t="b">
-        <f>E47='[1]Index Composition'!E47</f>
-        <v>1</v>
-      </c>
-      <c r="K47" t="b">
-        <f>F47='[1]Index Composition'!F47</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -5729,20 +2979,8 @@
       <c r="H48" t="s">
         <v>414</v>
       </c>
-      <c r="I48" t="b">
-        <f>D48='[1]Index Composition'!D48</f>
-        <v>1</v>
-      </c>
-      <c r="J48" t="b">
-        <f>E48='[1]Index Composition'!E48</f>
-        <v>1</v>
-      </c>
-      <c r="K48" t="b">
-        <f>F48='[1]Index Composition'!F48</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -5767,20 +3005,8 @@
       <c r="H49" t="s">
         <v>414</v>
       </c>
-      <c r="I49" t="b">
-        <f>D49='[1]Index Composition'!D49</f>
-        <v>1</v>
-      </c>
-      <c r="J49" t="b">
-        <f>E49='[1]Index Composition'!E49</f>
-        <v>1</v>
-      </c>
-      <c r="K49" t="b">
-        <f>F49='[1]Index Composition'!F49</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -5805,20 +3031,8 @@
       <c r="H50" t="s">
         <v>414</v>
       </c>
-      <c r="I50" t="b">
-        <f>D50='[1]Index Composition'!D50</f>
-        <v>1</v>
-      </c>
-      <c r="J50" t="b">
-        <f>E50='[1]Index Composition'!E50</f>
-        <v>1</v>
-      </c>
-      <c r="K50" t="b">
-        <f>F50='[1]Index Composition'!F50</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -5843,20 +3057,8 @@
       <c r="H51" t="s">
         <v>414</v>
       </c>
-      <c r="I51" t="b">
-        <f>D51='[1]Index Composition'!D51</f>
-        <v>1</v>
-      </c>
-      <c r="J51" t="b">
-        <f>E51='[1]Index Composition'!E51</f>
-        <v>1</v>
-      </c>
-      <c r="K51" t="b">
-        <f>F51='[1]Index Composition'!F51</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5881,20 +3083,8 @@
       <c r="H52" t="s">
         <v>414</v>
       </c>
-      <c r="I52" t="b">
-        <f>D52='[1]Index Composition'!D52</f>
-        <v>1</v>
-      </c>
-      <c r="J52" t="b">
-        <f>E52='[1]Index Composition'!E52</f>
-        <v>1</v>
-      </c>
-      <c r="K52" t="b">
-        <f>F52='[1]Index Composition'!F52</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -5919,20 +3109,8 @@
       <c r="H53" t="s">
         <v>416</v>
       </c>
-      <c r="I53" t="b">
-        <f>D53='[1]Index Composition'!D53</f>
-        <v>1</v>
-      </c>
-      <c r="J53" t="b">
-        <f>E53='[1]Index Composition'!E53</f>
-        <v>1</v>
-      </c>
-      <c r="K53" t="b">
-        <f>F53='[1]Index Composition'!F53</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -5957,20 +3135,8 @@
       <c r="H54" t="s">
         <v>416</v>
       </c>
-      <c r="I54" t="b">
-        <f>D54='[1]Index Composition'!D54</f>
-        <v>1</v>
-      </c>
-      <c r="J54" t="b">
-        <f>E54='[1]Index Composition'!E54</f>
-        <v>1</v>
-      </c>
-      <c r="K54" t="b">
-        <f>F54='[1]Index Composition'!F54</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -5995,20 +3161,8 @@
       <c r="H55" t="s">
         <v>419</v>
       </c>
-      <c r="I55" t="b">
-        <f>D55='[1]Index Composition'!D55</f>
-        <v>1</v>
-      </c>
-      <c r="J55" t="b">
-        <f>E55='[1]Index Composition'!E55</f>
-        <v>1</v>
-      </c>
-      <c r="K55" t="b">
-        <f>F55='[1]Index Composition'!F55</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -6033,20 +3187,8 @@
       <c r="H56" t="s">
         <v>414</v>
       </c>
-      <c r="I56" t="b">
-        <f>D56='[1]Index Composition'!D56</f>
-        <v>1</v>
-      </c>
-      <c r="J56" t="b">
-        <f>E56='[1]Index Composition'!E56</f>
-        <v>1</v>
-      </c>
-      <c r="K56" t="b">
-        <f>F56='[1]Index Composition'!F56</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -6071,20 +3213,8 @@
       <c r="H57" t="s">
         <v>416</v>
       </c>
-      <c r="I57" t="b">
-        <f>D57='[1]Index Composition'!D57</f>
-        <v>1</v>
-      </c>
-      <c r="J57" t="b">
-        <f>E57='[1]Index Composition'!E57</f>
-        <v>1</v>
-      </c>
-      <c r="K57" t="b">
-        <f>F57='[1]Index Composition'!F57</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -6109,20 +3239,8 @@
       <c r="H58" t="s">
         <v>419</v>
       </c>
-      <c r="I58" t="b">
-        <f>D58='[1]Index Composition'!D58</f>
-        <v>1</v>
-      </c>
-      <c r="J58" t="b">
-        <f>E58='[1]Index Composition'!E58</f>
-        <v>1</v>
-      </c>
-      <c r="K58" t="b">
-        <f>F58='[1]Index Composition'!F58</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -6147,20 +3265,8 @@
       <c r="H59" t="s">
         <v>414</v>
       </c>
-      <c r="I59" t="b">
-        <f>D59='[1]Index Composition'!D59</f>
-        <v>1</v>
-      </c>
-      <c r="J59" t="b">
-        <f>E59='[1]Index Composition'!E59</f>
-        <v>1</v>
-      </c>
-      <c r="K59" t="b">
-        <f>F59='[1]Index Composition'!F59</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -6185,20 +3291,8 @@
       <c r="H60" t="s">
         <v>418</v>
       </c>
-      <c r="I60" t="b">
-        <f>D60='[1]Index Composition'!D60</f>
-        <v>1</v>
-      </c>
-      <c r="J60" t="b">
-        <f>E60='[1]Index Composition'!E60</f>
-        <v>1</v>
-      </c>
-      <c r="K60" t="b">
-        <f>F60='[1]Index Composition'!F60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -6223,20 +3317,8 @@
       <c r="H61" t="s">
         <v>414</v>
       </c>
-      <c r="I61" t="b">
-        <f>D61='[1]Index Composition'!D61</f>
-        <v>1</v>
-      </c>
-      <c r="J61" t="b">
-        <f>E61='[1]Index Composition'!E61</f>
-        <v>1</v>
-      </c>
-      <c r="K61" t="b">
-        <f>F61='[1]Index Composition'!F61</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -6261,20 +3343,8 @@
       <c r="H62" t="s">
         <v>416</v>
       </c>
-      <c r="I62" t="b">
-        <f>D62='[1]Index Composition'!D62</f>
-        <v>1</v>
-      </c>
-      <c r="J62" t="b">
-        <f>E62='[1]Index Composition'!E62</f>
-        <v>1</v>
-      </c>
-      <c r="K62" t="b">
-        <f>F62='[1]Index Composition'!F62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -6299,20 +3369,8 @@
       <c r="H63" t="s">
         <v>416</v>
       </c>
-      <c r="I63" t="b">
-        <f>D63='[1]Index Composition'!D63</f>
-        <v>1</v>
-      </c>
-      <c r="J63" t="b">
-        <f>E63='[1]Index Composition'!E63</f>
-        <v>1</v>
-      </c>
-      <c r="K63" t="b">
-        <f>F63='[1]Index Composition'!F63</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -6326,7 +3384,7 @@
         <v>237553695</v>
       </c>
       <c r="E64">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -6337,20 +3395,8 @@
       <c r="H64" t="s">
         <v>416</v>
       </c>
-      <c r="I64" t="b">
-        <f>D64='[1]Index Composition'!D64</f>
-        <v>1</v>
-      </c>
-      <c r="J64" t="b">
-        <f>E64='[1]Index Composition'!E64</f>
-        <v>1</v>
-      </c>
-      <c r="K64" t="b">
-        <f>F64='[1]Index Composition'!F64</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -6375,20 +3421,8 @@
       <c r="H65" t="s">
         <v>414</v>
       </c>
-      <c r="I65" t="b">
-        <f>D65='[1]Index Composition'!D65</f>
-        <v>1</v>
-      </c>
-      <c r="J65" t="b">
-        <f>E65='[1]Index Composition'!E65</f>
-        <v>1</v>
-      </c>
-      <c r="K65" t="b">
-        <f>F65='[1]Index Composition'!F65</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -6413,20 +3447,8 @@
       <c r="H66" t="s">
         <v>414</v>
       </c>
-      <c r="I66" t="b">
-        <f>D66='[1]Index Composition'!D66</f>
-        <v>1</v>
-      </c>
-      <c r="J66" t="b">
-        <f>E66='[1]Index Composition'!E66</f>
-        <v>1</v>
-      </c>
-      <c r="K66" t="b">
-        <f>F66='[1]Index Composition'!F66</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -6451,20 +3473,8 @@
       <c r="H67" t="s">
         <v>417</v>
       </c>
-      <c r="I67" t="b">
-        <f>D67='[1]Index Composition'!D67</f>
-        <v>1</v>
-      </c>
-      <c r="J67" t="b">
-        <f>E67='[1]Index Composition'!E67</f>
-        <v>1</v>
-      </c>
-      <c r="K67" t="b">
-        <f>F67='[1]Index Composition'!F67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -6489,20 +3499,8 @@
       <c r="H68" t="s">
         <v>414</v>
       </c>
-      <c r="I68" t="b">
-        <f>D68='[1]Index Composition'!D68</f>
-        <v>1</v>
-      </c>
-      <c r="J68" t="b">
-        <f>E68='[1]Index Composition'!E68</f>
-        <v>1</v>
-      </c>
-      <c r="K68" t="b">
-        <f>F68='[1]Index Composition'!F68</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -6527,20 +3525,8 @@
       <c r="H69" t="s">
         <v>414</v>
       </c>
-      <c r="I69" t="b">
-        <f>D69='[1]Index Composition'!D69</f>
-        <v>1</v>
-      </c>
-      <c r="J69" t="b">
-        <f>E69='[1]Index Composition'!E69</f>
-        <v>1</v>
-      </c>
-      <c r="K69" t="b">
-        <f>F69='[1]Index Composition'!F69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -6565,20 +3551,8 @@
       <c r="H70" t="s">
         <v>419</v>
       </c>
-      <c r="I70" t="b">
-        <f>D70='[1]Index Composition'!D70</f>
-        <v>1</v>
-      </c>
-      <c r="J70" t="b">
-        <f>E70='[1]Index Composition'!E70</f>
-        <v>1</v>
-      </c>
-      <c r="K70" t="b">
-        <f>F70='[1]Index Composition'!F70</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -6603,20 +3577,8 @@
       <c r="H71" t="s">
         <v>414</v>
       </c>
-      <c r="I71" t="b">
-        <f>D71='[1]Index Composition'!D71</f>
-        <v>1</v>
-      </c>
-      <c r="J71" t="b">
-        <f>E71='[1]Index Composition'!E71</f>
-        <v>1</v>
-      </c>
-      <c r="K71" t="b">
-        <f>F71='[1]Index Composition'!F71</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -6641,20 +3603,8 @@
       <c r="H72" t="s">
         <v>414</v>
       </c>
-      <c r="I72" t="b">
-        <f>D72='[1]Index Composition'!D72</f>
-        <v>1</v>
-      </c>
-      <c r="J72" t="b">
-        <f>E72='[1]Index Composition'!E72</f>
-        <v>1</v>
-      </c>
-      <c r="K72" t="b">
-        <f>F72='[1]Index Composition'!F72</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -6679,20 +3629,8 @@
       <c r="H73" t="s">
         <v>414</v>
       </c>
-      <c r="I73" t="b">
-        <f>D73='[1]Index Composition'!D73</f>
-        <v>1</v>
-      </c>
-      <c r="J73" t="b">
-        <f>E73='[1]Index Composition'!E73</f>
-        <v>1</v>
-      </c>
-      <c r="K73" t="b">
-        <f>F73='[1]Index Composition'!F73</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -6717,20 +3655,8 @@
       <c r="H74" t="s">
         <v>416</v>
       </c>
-      <c r="I74" t="b">
-        <f>D74='[1]Index Composition'!D74</f>
-        <v>1</v>
-      </c>
-      <c r="J74" t="b">
-        <f>E74='[1]Index Composition'!E74</f>
-        <v>1</v>
-      </c>
-      <c r="K74" t="b">
-        <f>F74='[1]Index Composition'!F74</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -6755,20 +3681,8 @@
       <c r="H75" t="s">
         <v>414</v>
       </c>
-      <c r="I75" t="b">
-        <f>D75='[1]Index Composition'!D75</f>
-        <v>1</v>
-      </c>
-      <c r="J75" t="b">
-        <f>E75='[1]Index Composition'!E75</f>
-        <v>1</v>
-      </c>
-      <c r="K75" t="b">
-        <f>F75='[1]Index Composition'!F75</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -6793,20 +3707,8 @@
       <c r="H76" t="s">
         <v>414</v>
       </c>
-      <c r="I76" t="b">
-        <f>D76='[1]Index Composition'!D76</f>
-        <v>1</v>
-      </c>
-      <c r="J76" t="b">
-        <f>E76='[1]Index Composition'!E76</f>
-        <v>1</v>
-      </c>
-      <c r="K76" t="b">
-        <f>F76='[1]Index Composition'!F76</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -6831,20 +3733,8 @@
       <c r="H77" t="s">
         <v>415</v>
       </c>
-      <c r="I77" t="b">
-        <f>D77='[1]Index Composition'!D77</f>
-        <v>1</v>
-      </c>
-      <c r="J77" t="b">
-        <f>E77='[1]Index Composition'!E77</f>
-        <v>1</v>
-      </c>
-      <c r="K77" t="b">
-        <f>F77='[1]Index Composition'!F77</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -6869,20 +3759,8 @@
       <c r="H78" t="s">
         <v>414</v>
       </c>
-      <c r="I78" t="b">
-        <f>D78='[1]Index Composition'!D78</f>
-        <v>1</v>
-      </c>
-      <c r="J78" t="b">
-        <f>E78='[1]Index Composition'!E78</f>
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
-        <f>F78='[1]Index Composition'!F78</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -6907,20 +3785,8 @@
       <c r="H79" t="s">
         <v>414</v>
       </c>
-      <c r="I79" t="b">
-        <f>D79='[1]Index Composition'!D79</f>
-        <v>1</v>
-      </c>
-      <c r="J79" t="b">
-        <f>E79='[1]Index Composition'!E79</f>
-        <v>1</v>
-      </c>
-      <c r="K79" t="b">
-        <f>F79='[1]Index Composition'!F79</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -6945,20 +3811,8 @@
       <c r="H80" t="s">
         <v>416</v>
       </c>
-      <c r="I80" t="b">
-        <f>D80='[1]Index Composition'!D80</f>
-        <v>1</v>
-      </c>
-      <c r="J80" t="b">
-        <f>E80='[1]Index Composition'!E80</f>
-        <v>1</v>
-      </c>
-      <c r="K80" t="b">
-        <f>F80='[1]Index Composition'!F80</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -6983,20 +3837,8 @@
       <c r="H81" t="s">
         <v>415</v>
       </c>
-      <c r="I81" t="b">
-        <f>D81='[1]Index Composition'!D81</f>
-        <v>1</v>
-      </c>
-      <c r="J81" t="b">
-        <f>E81='[1]Index Composition'!E81</f>
-        <v>1</v>
-      </c>
-      <c r="K81" t="b">
-        <f>F81='[1]Index Composition'!F81</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -7021,20 +3863,8 @@
       <c r="H82" t="s">
         <v>414</v>
       </c>
-      <c r="I82" t="b">
-        <f>D82='[1]Index Composition'!D82</f>
-        <v>1</v>
-      </c>
-      <c r="J82" t="b">
-        <f>E82='[1]Index Composition'!E82</f>
-        <v>1</v>
-      </c>
-      <c r="K82" t="b">
-        <f>F82='[1]Index Composition'!F82</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -7059,20 +3889,8 @@
       <c r="H83" t="s">
         <v>415</v>
       </c>
-      <c r="I83" t="b">
-        <f>D83='[1]Index Composition'!D83</f>
-        <v>1</v>
-      </c>
-      <c r="J83" t="b">
-        <f>E83='[1]Index Composition'!E83</f>
-        <v>1</v>
-      </c>
-      <c r="K83" t="b">
-        <f>F83='[1]Index Composition'!F83</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -7086,7 +3904,7 @@
         <v>550000000</v>
       </c>
       <c r="E84">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -7097,20 +3915,8 @@
       <c r="H84" t="s">
         <v>416</v>
       </c>
-      <c r="I84" t="b">
-        <f>D84='[1]Index Composition'!D84</f>
-        <v>1</v>
-      </c>
-      <c r="J84" t="b">
-        <f>E84='[1]Index Composition'!E84</f>
-        <v>1</v>
-      </c>
-      <c r="K84" t="b">
-        <f>F84='[1]Index Composition'!F84</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -7135,20 +3941,8 @@
       <c r="H85" t="s">
         <v>414</v>
       </c>
-      <c r="I85" t="b">
-        <f>D85='[1]Index Composition'!D85</f>
-        <v>1</v>
-      </c>
-      <c r="J85" t="b">
-        <f>E85='[1]Index Composition'!E85</f>
-        <v>1</v>
-      </c>
-      <c r="K85" t="b">
-        <f>F85='[1]Index Composition'!F85</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -7173,20 +3967,8 @@
       <c r="H86" t="s">
         <v>419</v>
       </c>
-      <c r="I86" t="b">
-        <f>D86='[1]Index Composition'!D86</f>
-        <v>1</v>
-      </c>
-      <c r="J86" t="b">
-        <f>E86='[1]Index Composition'!E86</f>
-        <v>1</v>
-      </c>
-      <c r="K86" t="b">
-        <f>F86='[1]Index Composition'!F86</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -7211,20 +3993,8 @@
       <c r="H87" t="s">
         <v>416</v>
       </c>
-      <c r="I87" t="b">
-        <f>D87='[1]Index Composition'!D87</f>
-        <v>1</v>
-      </c>
-      <c r="J87" t="b">
-        <f>E87='[1]Index Composition'!E87</f>
-        <v>1</v>
-      </c>
-      <c r="K87" t="b">
-        <f>F87='[1]Index Composition'!F87</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -7249,20 +4019,8 @@
       <c r="H88" t="s">
         <v>416</v>
       </c>
-      <c r="I88" t="b">
-        <f>D88='[1]Index Composition'!D88</f>
-        <v>1</v>
-      </c>
-      <c r="J88" t="b">
-        <f>E88='[1]Index Composition'!E88</f>
-        <v>1</v>
-      </c>
-      <c r="K88" t="b">
-        <f>F88='[1]Index Composition'!F88</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -7287,20 +4045,8 @@
       <c r="H89" t="s">
         <v>416</v>
       </c>
-      <c r="I89" t="b">
-        <f>D89='[1]Index Composition'!D89</f>
-        <v>1</v>
-      </c>
-      <c r="J89" t="b">
-        <f>E89='[1]Index Composition'!E89</f>
-        <v>1</v>
-      </c>
-      <c r="K89" t="b">
-        <f>F89='[1]Index Composition'!F89</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -7325,20 +4071,8 @@
       <c r="H90" t="s">
         <v>415</v>
       </c>
-      <c r="I90" t="b">
-        <f>D90='[1]Index Composition'!D90</f>
-        <v>1</v>
-      </c>
-      <c r="J90" t="b">
-        <f>E90='[1]Index Composition'!E90</f>
-        <v>1</v>
-      </c>
-      <c r="K90" t="b">
-        <f>F90='[1]Index Composition'!F90</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -7363,20 +4097,8 @@
       <c r="H91" t="s">
         <v>414</v>
       </c>
-      <c r="I91" t="b">
-        <f>D91='[1]Index Composition'!D91</f>
-        <v>1</v>
-      </c>
-      <c r="J91" t="b">
-        <f>E91='[1]Index Composition'!E91</f>
-        <v>1</v>
-      </c>
-      <c r="K91" t="b">
-        <f>F91='[1]Index Composition'!F91</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -7401,20 +4123,8 @@
       <c r="H92" t="s">
         <v>414</v>
       </c>
-      <c r="I92" t="b">
-        <f>D92='[1]Index Composition'!D92</f>
-        <v>1</v>
-      </c>
-      <c r="J92" t="b">
-        <f>E92='[1]Index Composition'!E92</f>
-        <v>1</v>
-      </c>
-      <c r="K92" t="b">
-        <f>F92='[1]Index Composition'!F92</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -7439,20 +4149,8 @@
       <c r="H93" t="s">
         <v>414</v>
       </c>
-      <c r="I93" t="b">
-        <f>D93='[1]Index Composition'!D93</f>
-        <v>1</v>
-      </c>
-      <c r="J93" t="b">
-        <f>E93='[1]Index Composition'!E93</f>
-        <v>1</v>
-      </c>
-      <c r="K93" t="b">
-        <f>F93='[1]Index Composition'!F93</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -7477,20 +4175,8 @@
       <c r="H94" t="s">
         <v>414</v>
       </c>
-      <c r="I94" t="b">
-        <f>D94='[1]Index Composition'!D94</f>
-        <v>1</v>
-      </c>
-      <c r="J94" t="b">
-        <f>E94='[1]Index Composition'!E94</f>
-        <v>1</v>
-      </c>
-      <c r="K94" t="b">
-        <f>F94='[1]Index Composition'!F94</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -7515,20 +4201,8 @@
       <c r="H95" t="s">
         <v>419</v>
       </c>
-      <c r="I95" t="b">
-        <f>D95='[1]Index Composition'!D95</f>
-        <v>1</v>
-      </c>
-      <c r="J95" t="b">
-        <f>E95='[1]Index Composition'!E95</f>
-        <v>1</v>
-      </c>
-      <c r="K95" t="b">
-        <f>F95='[1]Index Composition'!F95</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -7553,20 +4227,8 @@
       <c r="H96" t="s">
         <v>417</v>
       </c>
-      <c r="I96" t="b">
-        <f>D96='[1]Index Composition'!D96</f>
-        <v>1</v>
-      </c>
-      <c r="J96" t="b">
-        <f>E96='[1]Index Composition'!E96</f>
-        <v>1</v>
-      </c>
-      <c r="K96" t="b">
-        <f>F96='[1]Index Composition'!F96</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -7591,20 +4253,8 @@
       <c r="H97" t="s">
         <v>414</v>
       </c>
-      <c r="I97" t="b">
-        <f>D97='[1]Index Composition'!D97</f>
-        <v>1</v>
-      </c>
-      <c r="J97" t="b">
-        <f>E97='[1]Index Composition'!E97</f>
-        <v>1</v>
-      </c>
-      <c r="K97" t="b">
-        <f>F97='[1]Index Composition'!F97</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -7629,20 +4279,8 @@
       <c r="H98" t="s">
         <v>416</v>
       </c>
-      <c r="I98" t="b">
-        <f>D98='[1]Index Composition'!D98</f>
-        <v>1</v>
-      </c>
-      <c r="J98" t="b">
-        <f>E98='[1]Index Composition'!E98</f>
-        <v>1</v>
-      </c>
-      <c r="K98" t="b">
-        <f>F98='[1]Index Composition'!F98</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -7667,20 +4305,8 @@
       <c r="H99" t="s">
         <v>419</v>
       </c>
-      <c r="I99" t="b">
-        <f>D99='[1]Index Composition'!D99</f>
-        <v>1</v>
-      </c>
-      <c r="J99" t="b">
-        <f>E99='[1]Index Composition'!E99</f>
-        <v>1</v>
-      </c>
-      <c r="K99" t="b">
-        <f>F99='[1]Index Composition'!F99</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -7705,20 +4331,8 @@
       <c r="H100" t="s">
         <v>418</v>
       </c>
-      <c r="I100" t="b">
-        <f>D100='[1]Index Composition'!D100</f>
-        <v>1</v>
-      </c>
-      <c r="J100" t="b">
-        <f>E100='[1]Index Composition'!E100</f>
-        <v>1</v>
-      </c>
-      <c r="K100" t="b">
-        <f>F100='[1]Index Composition'!F100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -7743,20 +4357,8 @@
       <c r="H101" t="s">
         <v>416</v>
       </c>
-      <c r="I101" t="b">
-        <f>D101='[1]Index Composition'!D101</f>
-        <v>1</v>
-      </c>
-      <c r="J101" t="b">
-        <f>E101='[1]Index Composition'!E101</f>
-        <v>1</v>
-      </c>
-      <c r="K101" t="b">
-        <f>F101='[1]Index Composition'!F101</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -7781,20 +4383,8 @@
       <c r="H102" t="s">
         <v>414</v>
       </c>
-      <c r="I102" t="b">
-        <f>D102='[1]Index Composition'!D102</f>
-        <v>1</v>
-      </c>
-      <c r="J102" t="b">
-        <f>E102='[1]Index Composition'!E102</f>
-        <v>1</v>
-      </c>
-      <c r="K102" t="b">
-        <f>F102='[1]Index Composition'!F102</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -7819,20 +4409,8 @@
       <c r="H103" t="s">
         <v>414</v>
       </c>
-      <c r="I103" t="b">
-        <f>D103='[1]Index Composition'!D103</f>
-        <v>1</v>
-      </c>
-      <c r="J103" t="b">
-        <f>E103='[1]Index Composition'!E103</f>
-        <v>1</v>
-      </c>
-      <c r="K103" t="b">
-        <f>F103='[1]Index Composition'!F103</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -7846,7 +4424,7 @@
         <v>180396053</v>
       </c>
       <c r="E104">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7857,20 +4435,8 @@
       <c r="H104" t="s">
         <v>416</v>
       </c>
-      <c r="I104" t="b">
-        <f>D104='[1]Index Composition'!D104</f>
-        <v>1</v>
-      </c>
-      <c r="J104" t="b">
-        <f>E104='[1]Index Composition'!E104</f>
-        <v>1</v>
-      </c>
-      <c r="K104" t="b">
-        <f>F104='[1]Index Composition'!F104</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -7884,7 +4450,7 @@
         <v>131198650</v>
       </c>
       <c r="E105">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7895,20 +4461,8 @@
       <c r="H105" t="s">
         <v>416</v>
       </c>
-      <c r="I105" t="b">
-        <f>D105='[1]Index Composition'!D105</f>
-        <v>1</v>
-      </c>
-      <c r="J105" t="b">
-        <f>E105='[1]Index Composition'!E105</f>
-        <v>1</v>
-      </c>
-      <c r="K105" t="b">
-        <f>F105='[1]Index Composition'!F105</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -7933,20 +4487,8 @@
       <c r="H106" t="s">
         <v>416</v>
       </c>
-      <c r="I106" t="b">
-        <f>D106='[1]Index Composition'!D106</f>
-        <v>1</v>
-      </c>
-      <c r="J106" t="b">
-        <f>E106='[1]Index Composition'!E106</f>
-        <v>1</v>
-      </c>
-      <c r="K106" t="b">
-        <f>F106='[1]Index Composition'!F106</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -7971,20 +4513,8 @@
       <c r="H107" t="s">
         <v>416</v>
       </c>
-      <c r="I107" t="b">
-        <f>D107='[1]Index Composition'!D107</f>
-        <v>1</v>
-      </c>
-      <c r="J107" t="b">
-        <f>E107='[1]Index Composition'!E107</f>
-        <v>1</v>
-      </c>
-      <c r="K107" t="b">
-        <f>F107='[1]Index Composition'!F107</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -8009,20 +4539,8 @@
       <c r="H108" t="s">
         <v>416</v>
       </c>
-      <c r="I108" t="b">
-        <f>D108='[1]Index Composition'!D108</f>
-        <v>1</v>
-      </c>
-      <c r="J108" t="b">
-        <f>E108='[1]Index Composition'!E108</f>
-        <v>1</v>
-      </c>
-      <c r="K108" t="b">
-        <f>F108='[1]Index Composition'!F108</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -8047,20 +4565,8 @@
       <c r="H109" t="s">
         <v>420</v>
       </c>
-      <c r="I109" t="b">
-        <f>D109='[1]Index Composition'!D109</f>
-        <v>1</v>
-      </c>
-      <c r="J109" t="b">
-        <f>E109='[1]Index Composition'!E109</f>
-        <v>1</v>
-      </c>
-      <c r="K109" t="b">
-        <f>F109='[1]Index Composition'!F109</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -8085,20 +4591,8 @@
       <c r="H110" t="s">
         <v>415</v>
       </c>
-      <c r="I110" t="b">
-        <f>D110='[1]Index Composition'!D110</f>
-        <v>1</v>
-      </c>
-      <c r="J110" t="b">
-        <f>E110='[1]Index Composition'!E110</f>
-        <v>1</v>
-      </c>
-      <c r="K110" t="b">
-        <f>F110='[1]Index Composition'!F110</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -8123,20 +4617,8 @@
       <c r="H111" t="s">
         <v>414</v>
       </c>
-      <c r="I111" t="b">
-        <f>D111='[1]Index Composition'!D111</f>
-        <v>1</v>
-      </c>
-      <c r="J111" t="b">
-        <f>E111='[1]Index Composition'!E111</f>
-        <v>1</v>
-      </c>
-      <c r="K111" t="b">
-        <f>F111='[1]Index Composition'!F111</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -8161,20 +4643,8 @@
       <c r="H112" t="s">
         <v>416</v>
       </c>
-      <c r="I112" t="b">
-        <f>D112='[1]Index Composition'!D112</f>
-        <v>1</v>
-      </c>
-      <c r="J112" t="b">
-        <f>E112='[1]Index Composition'!E112</f>
-        <v>1</v>
-      </c>
-      <c r="K112" t="b">
-        <f>F112='[1]Index Composition'!F112</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -8188,7 +4658,7 @@
         <v>578150395</v>
       </c>
       <c r="E113">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -8199,20 +4669,8 @@
       <c r="H113" t="s">
         <v>416</v>
       </c>
-      <c r="I113" t="b">
-        <f>D113='[1]Index Composition'!D113</f>
-        <v>1</v>
-      </c>
-      <c r="J113" t="b">
-        <f>E113='[1]Index Composition'!E113</f>
-        <v>1</v>
-      </c>
-      <c r="K113" t="b">
-        <f>F113='[1]Index Composition'!F113</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -8226,7 +4684,7 @@
         <v>423836460</v>
       </c>
       <c r="E114">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -8237,20 +4695,8 @@
       <c r="H114" t="s">
         <v>417</v>
       </c>
-      <c r="I114" t="b">
-        <f>D114='[1]Index Composition'!D114</f>
-        <v>1</v>
-      </c>
-      <c r="J114" t="b">
-        <f>E114='[1]Index Composition'!E114</f>
-        <v>1</v>
-      </c>
-      <c r="K114" t="b">
-        <f>F114='[1]Index Composition'!F114</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -8275,20 +4721,8 @@
       <c r="H115" t="s">
         <v>414</v>
       </c>
-      <c r="I115" t="b">
-        <f>D115='[1]Index Composition'!D115</f>
-        <v>1</v>
-      </c>
-      <c r="J115" t="b">
-        <f>E115='[1]Index Composition'!E115</f>
-        <v>1</v>
-      </c>
-      <c r="K115" t="b">
-        <f>F115='[1]Index Composition'!F115</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -8313,20 +4747,8 @@
       <c r="H116" t="s">
         <v>414</v>
       </c>
-      <c r="I116" t="b">
-        <f>D116='[1]Index Composition'!D116</f>
-        <v>1</v>
-      </c>
-      <c r="J116" t="b">
-        <f>E116='[1]Index Composition'!E116</f>
-        <v>1</v>
-      </c>
-      <c r="K116" t="b">
-        <f>F116='[1]Index Composition'!F116</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -8351,20 +4773,8 @@
       <c r="H117" t="s">
         <v>414</v>
       </c>
-      <c r="I117" t="b">
-        <f>D117='[1]Index Composition'!D117</f>
-        <v>1</v>
-      </c>
-      <c r="J117" t="b">
-        <f>E117='[1]Index Composition'!E117</f>
-        <v>1</v>
-      </c>
-      <c r="K117" t="b">
-        <f>F117='[1]Index Composition'!F117</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -8389,20 +4799,8 @@
       <c r="H118" t="s">
         <v>419</v>
       </c>
-      <c r="I118" t="b">
-        <f>D118='[1]Index Composition'!D118</f>
-        <v>1</v>
-      </c>
-      <c r="J118" t="b">
-        <f>E118='[1]Index Composition'!E118</f>
-        <v>1</v>
-      </c>
-      <c r="K118" t="b">
-        <f>F118='[1]Index Composition'!F118</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -8427,20 +4825,8 @@
       <c r="H119" t="s">
         <v>416</v>
       </c>
-      <c r="I119" t="b">
-        <f>D119='[1]Index Composition'!D119</f>
-        <v>1</v>
-      </c>
-      <c r="J119" t="b">
-        <f>E119='[1]Index Composition'!E119</f>
-        <v>1</v>
-      </c>
-      <c r="K119" t="b">
-        <f>F119='[1]Index Composition'!F119</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -8465,20 +4851,8 @@
       <c r="H120" t="s">
         <v>414</v>
       </c>
-      <c r="I120" t="b">
-        <f>D120='[1]Index Composition'!D120</f>
-        <v>1</v>
-      </c>
-      <c r="J120" t="b">
-        <f>E120='[1]Index Composition'!E120</f>
-        <v>1</v>
-      </c>
-      <c r="K120" t="b">
-        <f>F120='[1]Index Composition'!F120</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -8503,20 +4877,8 @@
       <c r="H121" t="s">
         <v>419</v>
       </c>
-      <c r="I121" t="b">
-        <f>D121='[1]Index Composition'!D121</f>
-        <v>1</v>
-      </c>
-      <c r="J121" t="b">
-        <f>E121='[1]Index Composition'!E121</f>
-        <v>1</v>
-      </c>
-      <c r="K121" t="b">
-        <f>F121='[1]Index Composition'!F121</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -8541,20 +4903,8 @@
       <c r="H122" t="s">
         <v>416</v>
       </c>
-      <c r="I122" t="b">
-        <f>D122='[1]Index Composition'!D122</f>
-        <v>1</v>
-      </c>
-      <c r="J122" t="b">
-        <f>E122='[1]Index Composition'!E122</f>
-        <v>1</v>
-      </c>
-      <c r="K122" t="b">
-        <f>F122='[1]Index Composition'!F122</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -8568,7 +4918,7 @@
         <v>43744779</v>
       </c>
       <c r="E123">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -8579,20 +4929,8 @@
       <c r="H123" t="s">
         <v>416</v>
       </c>
-      <c r="I123" t="b">
-        <f>D123='[1]Index Composition'!D123</f>
-        <v>1</v>
-      </c>
-      <c r="J123" t="b">
-        <f>E123='[1]Index Composition'!E123</f>
-        <v>1</v>
-      </c>
-      <c r="K123" t="b">
-        <f>F123='[1]Index Composition'!F123</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -8617,20 +4955,8 @@
       <c r="H124" t="s">
         <v>417</v>
       </c>
-      <c r="I124" t="b">
-        <f>D124='[1]Index Composition'!D124</f>
-        <v>1</v>
-      </c>
-      <c r="J124" t="b">
-        <f>E124='[1]Index Composition'!E124</f>
-        <v>1</v>
-      </c>
-      <c r="K124" t="b">
-        <f>F124='[1]Index Composition'!F124</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -8655,20 +4981,8 @@
       <c r="H125" t="s">
         <v>418</v>
       </c>
-      <c r="I125" t="b">
-        <f>D125='[1]Index Composition'!D125</f>
-        <v>1</v>
-      </c>
-      <c r="J125" t="b">
-        <f>E125='[1]Index Composition'!E125</f>
-        <v>1</v>
-      </c>
-      <c r="K125" t="b">
-        <f>F125='[1]Index Composition'!F125</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -8693,20 +5007,8 @@
       <c r="H126" t="s">
         <v>414</v>
       </c>
-      <c r="I126" t="b">
-        <f>D126='[1]Index Composition'!D126</f>
-        <v>1</v>
-      </c>
-      <c r="J126" t="b">
-        <f>E126='[1]Index Composition'!E126</f>
-        <v>1</v>
-      </c>
-      <c r="K126" t="b">
-        <f>F126='[1]Index Composition'!F126</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -8731,20 +5033,8 @@
       <c r="H127" t="s">
         <v>414</v>
       </c>
-      <c r="I127" t="b">
-        <f>D127='[1]Index Composition'!D127</f>
-        <v>1</v>
-      </c>
-      <c r="J127" t="b">
-        <f>E127='[1]Index Composition'!E127</f>
-        <v>1</v>
-      </c>
-      <c r="K127" t="b">
-        <f>F127='[1]Index Composition'!F127</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -8769,20 +5059,8 @@
       <c r="H128" t="s">
         <v>414</v>
       </c>
-      <c r="I128" t="b">
-        <f>D128='[1]Index Composition'!D128</f>
-        <v>1</v>
-      </c>
-      <c r="J128" t="b">
-        <f>E128='[1]Index Composition'!E128</f>
-        <v>1</v>
-      </c>
-      <c r="K128" t="b">
-        <f>F128='[1]Index Composition'!F128</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -8807,20 +5085,8 @@
       <c r="H129" t="s">
         <v>414</v>
       </c>
-      <c r="I129" t="b">
-        <f>D129='[1]Index Composition'!D129</f>
-        <v>1</v>
-      </c>
-      <c r="J129" t="b">
-        <f>E129='[1]Index Composition'!E129</f>
-        <v>1</v>
-      </c>
-      <c r="K129" t="b">
-        <f>F129='[1]Index Composition'!F129</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -8845,20 +5111,8 @@
       <c r="H130" t="s">
         <v>414</v>
       </c>
-      <c r="I130" t="b">
-        <f>D130='[1]Index Composition'!D130</f>
-        <v>1</v>
-      </c>
-      <c r="J130" t="b">
-        <f>E130='[1]Index Composition'!E130</f>
-        <v>1</v>
-      </c>
-      <c r="K130" t="b">
-        <f>F130='[1]Index Composition'!F130</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -8883,20 +5137,8 @@
       <c r="H131" t="s">
         <v>414</v>
       </c>
-      <c r="I131" t="b">
-        <f>D131='[1]Index Composition'!D131</f>
-        <v>1</v>
-      </c>
-      <c r="J131" t="b">
-        <f>E131='[1]Index Composition'!E131</f>
-        <v>1</v>
-      </c>
-      <c r="K131" t="b">
-        <f>F131='[1]Index Composition'!F131</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -8921,20 +5163,8 @@
       <c r="H132" t="s">
         <v>414</v>
       </c>
-      <c r="I132" t="b">
-        <f>D132='[1]Index Composition'!D132</f>
-        <v>1</v>
-      </c>
-      <c r="J132" t="b">
-        <f>E132='[1]Index Composition'!E132</f>
-        <v>1</v>
-      </c>
-      <c r="K132" t="b">
-        <f>F132='[1]Index Composition'!F132</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -8959,20 +5189,8 @@
       <c r="H133" t="s">
         <v>414</v>
       </c>
-      <c r="I133" t="b">
-        <f>D133='[1]Index Composition'!D133</f>
-        <v>1</v>
-      </c>
-      <c r="J133" t="b">
-        <f>E133='[1]Index Composition'!E133</f>
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <f>F133='[1]Index Composition'!F133</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -8997,20 +5215,8 @@
       <c r="H134" t="s">
         <v>414</v>
       </c>
-      <c r="I134" t="b">
-        <f>D134='[1]Index Composition'!D134</f>
-        <v>1</v>
-      </c>
-      <c r="J134" t="b">
-        <f>E134='[1]Index Composition'!E134</f>
-        <v>1</v>
-      </c>
-      <c r="K134" t="b">
-        <f>F134='[1]Index Composition'!F134</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -9035,20 +5241,8 @@
       <c r="H135" t="s">
         <v>414</v>
       </c>
-      <c r="I135" t="b">
-        <f>D135='[1]Index Composition'!D135</f>
-        <v>0</v>
-      </c>
-      <c r="J135" t="b">
-        <f>E135='[1]Index Composition'!E135</f>
-        <v>1</v>
-      </c>
-      <c r="K135" t="b">
-        <f>F135='[1]Index Composition'!F135</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -9073,20 +5267,8 @@
       <c r="H136" t="s">
         <v>414</v>
       </c>
-      <c r="I136" t="b">
-        <f>D136='[1]Index Composition'!D136</f>
-        <v>1</v>
-      </c>
-      <c r="J136" t="b">
-        <f>E136='[1]Index Composition'!E136</f>
-        <v>1</v>
-      </c>
-      <c r="K136" t="b">
-        <f>F136='[1]Index Composition'!F136</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -9111,20 +5293,8 @@
       <c r="H137" t="s">
         <v>416</v>
       </c>
-      <c r="I137" t="b">
-        <f>D137='[1]Index Composition'!D137</f>
-        <v>1</v>
-      </c>
-      <c r="J137" t="b">
-        <f>E137='[1]Index Composition'!E137</f>
-        <v>1</v>
-      </c>
-      <c r="K137" t="b">
-        <f>F137='[1]Index Composition'!F137</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -9149,20 +5319,8 @@
       <c r="H138" t="s">
         <v>414</v>
       </c>
-      <c r="I138" t="b">
-        <f>D138='[1]Index Composition'!D138</f>
-        <v>1</v>
-      </c>
-      <c r="J138" t="b">
-        <f>E138='[1]Index Composition'!E138</f>
-        <v>1</v>
-      </c>
-      <c r="K138" t="b">
-        <f>F138='[1]Index Composition'!F138</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -9176,7 +5334,7 @@
         <v>175977424</v>
       </c>
       <c r="E139">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -9187,20 +5345,8 @@
       <c r="H139" t="s">
         <v>416</v>
       </c>
-      <c r="I139" t="b">
-        <f>D139='[1]Index Composition'!D139</f>
-        <v>1</v>
-      </c>
-      <c r="J139" t="b">
-        <f>E139='[1]Index Composition'!E139</f>
-        <v>1</v>
-      </c>
-      <c r="K139" t="b">
-        <f>F139='[1]Index Composition'!F139</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -9225,20 +5371,8 @@
       <c r="H140" t="s">
         <v>416</v>
       </c>
-      <c r="I140" t="b">
-        <f>D140='[1]Index Composition'!D140</f>
-        <v>1</v>
-      </c>
-      <c r="J140" t="b">
-        <f>E140='[1]Index Composition'!E140</f>
-        <v>1</v>
-      </c>
-      <c r="K140" t="b">
-        <f>F140='[1]Index Composition'!F140</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -9263,20 +5397,8 @@
       <c r="H141" t="s">
         <v>419</v>
       </c>
-      <c r="I141" t="b">
-        <f>D141='[1]Index Composition'!D141</f>
-        <v>1</v>
-      </c>
-      <c r="J141" t="b">
-        <f>E141='[1]Index Composition'!E141</f>
-        <v>1</v>
-      </c>
-      <c r="K141" t="b">
-        <f>F141='[1]Index Composition'!F141</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -9301,20 +5423,8 @@
       <c r="H142" t="s">
         <v>416</v>
       </c>
-      <c r="I142" t="b">
-        <f>D142='[1]Index Composition'!D142</f>
-        <v>1</v>
-      </c>
-      <c r="J142" t="b">
-        <f>E142='[1]Index Composition'!E142</f>
-        <v>1</v>
-      </c>
-      <c r="K142" t="b">
-        <f>F142='[1]Index Composition'!F142</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -9339,20 +5449,8 @@
       <c r="H143" t="s">
         <v>416</v>
       </c>
-      <c r="I143" t="b">
-        <f>D143='[1]Index Composition'!D143</f>
-        <v>1</v>
-      </c>
-      <c r="J143" t="b">
-        <f>E143='[1]Index Composition'!E143</f>
-        <v>1</v>
-      </c>
-      <c r="K143" t="b">
-        <f>F143='[1]Index Composition'!F143</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -9377,20 +5475,8 @@
       <c r="H144" t="s">
         <v>414</v>
       </c>
-      <c r="I144" t="b">
-        <f>D144='[1]Index Composition'!D144</f>
-        <v>1</v>
-      </c>
-      <c r="J144" t="b">
-        <f>E144='[1]Index Composition'!E144</f>
-        <v>1</v>
-      </c>
-      <c r="K144" t="b">
-        <f>F144='[1]Index Composition'!F144</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -9415,20 +5501,8 @@
       <c r="H145" t="s">
         <v>414</v>
       </c>
-      <c r="I145" t="b">
-        <f>D145='[1]Index Composition'!D145</f>
-        <v>1</v>
-      </c>
-      <c r="J145" t="b">
-        <f>E145='[1]Index Composition'!E145</f>
-        <v>1</v>
-      </c>
-      <c r="K145" t="b">
-        <f>F145='[1]Index Composition'!F145</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -9453,20 +5527,8 @@
       <c r="H146" t="s">
         <v>419</v>
       </c>
-      <c r="I146" t="b">
-        <f>D146='[1]Index Composition'!D146</f>
-        <v>1</v>
-      </c>
-      <c r="J146" t="b">
-        <f>E146='[1]Index Composition'!E146</f>
-        <v>1</v>
-      </c>
-      <c r="K146" t="b">
-        <f>F146='[1]Index Composition'!F146</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -9491,20 +5553,8 @@
       <c r="H147" t="s">
         <v>414</v>
       </c>
-      <c r="I147" t="b">
-        <f>D147='[1]Index Composition'!D147</f>
-        <v>1</v>
-      </c>
-      <c r="J147" t="b">
-        <f>E147='[1]Index Composition'!E147</f>
-        <v>1</v>
-      </c>
-      <c r="K147" t="b">
-        <f>F147='[1]Index Composition'!F147</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -9529,20 +5579,8 @@
       <c r="H148" t="s">
         <v>417</v>
       </c>
-      <c r="I148" t="b">
-        <f>D148='[1]Index Composition'!D148</f>
-        <v>1</v>
-      </c>
-      <c r="J148" t="b">
-        <f>E148='[1]Index Composition'!E148</f>
-        <v>1</v>
-      </c>
-      <c r="K148" t="b">
-        <f>F148='[1]Index Composition'!F148</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -9567,20 +5605,8 @@
       <c r="H149" t="s">
         <v>416</v>
       </c>
-      <c r="I149" t="b">
-        <f>D149='[1]Index Composition'!D149</f>
-        <v>1</v>
-      </c>
-      <c r="J149" t="b">
-        <f>E149='[1]Index Composition'!E149</f>
-        <v>1</v>
-      </c>
-      <c r="K149" t="b">
-        <f>F149='[1]Index Composition'!F149</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -9605,20 +5631,8 @@
       <c r="H150" t="s">
         <v>416</v>
       </c>
-      <c r="I150" t="b">
-        <f>D150='[1]Index Composition'!D150</f>
-        <v>1</v>
-      </c>
-      <c r="J150" t="b">
-        <f>E150='[1]Index Composition'!E150</f>
-        <v>1</v>
-      </c>
-      <c r="K150" t="b">
-        <f>F150='[1]Index Composition'!F150</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -9643,20 +5657,8 @@
       <c r="H151" t="s">
         <v>417</v>
       </c>
-      <c r="I151" t="b">
-        <f>D151='[1]Index Composition'!D151</f>
-        <v>1</v>
-      </c>
-      <c r="J151" t="b">
-        <f>E151='[1]Index Composition'!E151</f>
-        <v>1</v>
-      </c>
-      <c r="K151" t="b">
-        <f>F151='[1]Index Composition'!F151</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -9681,20 +5683,8 @@
       <c r="H152" t="s">
         <v>415</v>
       </c>
-      <c r="I152" t="b">
-        <f>D152='[1]Index Composition'!D152</f>
-        <v>1</v>
-      </c>
-      <c r="J152" t="b">
-        <f>E152='[1]Index Composition'!E152</f>
-        <v>1</v>
-      </c>
-      <c r="K152" t="b">
-        <f>F152='[1]Index Composition'!F152</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -9719,20 +5709,8 @@
       <c r="H153" t="s">
         <v>416</v>
       </c>
-      <c r="I153" t="b">
-        <f>D153='[1]Index Composition'!D153</f>
-        <v>1</v>
-      </c>
-      <c r="J153" t="b">
-        <f>E153='[1]Index Composition'!E153</f>
-        <v>1</v>
-      </c>
-      <c r="K153" t="b">
-        <f>F153='[1]Index Composition'!F153</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -9757,20 +5735,8 @@
       <c r="H154" t="s">
         <v>417</v>
       </c>
-      <c r="I154" t="b">
-        <f>D154='[1]Index Composition'!D154</f>
-        <v>1</v>
-      </c>
-      <c r="J154" t="b">
-        <f>E154='[1]Index Composition'!E154</f>
-        <v>1</v>
-      </c>
-      <c r="K154" t="b">
-        <f>F154='[1]Index Composition'!F154</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -9795,20 +5761,8 @@
       <c r="H155" t="s">
         <v>419</v>
       </c>
-      <c r="I155" t="b">
-        <f>D155='[1]Index Composition'!D155</f>
-        <v>1</v>
-      </c>
-      <c r="J155" t="b">
-        <f>E155='[1]Index Composition'!E155</f>
-        <v>1</v>
-      </c>
-      <c r="K155" t="b">
-        <f>F155='[1]Index Composition'!F155</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -9833,20 +5787,8 @@
       <c r="H156" t="s">
         <v>415</v>
       </c>
-      <c r="I156" t="b">
-        <f>D156='[1]Index Composition'!D156</f>
-        <v>1</v>
-      </c>
-      <c r="J156" t="b">
-        <f>E156='[1]Index Composition'!E156</f>
-        <v>1</v>
-      </c>
-      <c r="K156" t="b">
-        <f>F156='[1]Index Composition'!F156</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -9871,20 +5813,8 @@
       <c r="H157" t="s">
         <v>414</v>
       </c>
-      <c r="I157" t="b">
-        <f>D157='[1]Index Composition'!D157</f>
-        <v>1</v>
-      </c>
-      <c r="J157" t="b">
-        <f>E157='[1]Index Composition'!E157</f>
-        <v>1</v>
-      </c>
-      <c r="K157" t="b">
-        <f>F157='[1]Index Composition'!F157</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -9909,20 +5839,8 @@
       <c r="H158" t="s">
         <v>416</v>
       </c>
-      <c r="I158" t="b">
-        <f>D158='[1]Index Composition'!D158</f>
-        <v>1</v>
-      </c>
-      <c r="J158" t="b">
-        <f>E158='[1]Index Composition'!E158</f>
-        <v>1</v>
-      </c>
-      <c r="K158" t="b">
-        <f>F158='[1]Index Composition'!F158</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -9947,20 +5865,8 @@
       <c r="H159" t="s">
         <v>415</v>
       </c>
-      <c r="I159" t="b">
-        <f>D159='[1]Index Composition'!D159</f>
-        <v>1</v>
-      </c>
-      <c r="J159" t="b">
-        <f>E159='[1]Index Composition'!E159</f>
-        <v>1</v>
-      </c>
-      <c r="K159" t="b">
-        <f>F159='[1]Index Composition'!F159</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -9985,20 +5891,8 @@
       <c r="H160" t="s">
         <v>415</v>
       </c>
-      <c r="I160" t="b">
-        <f>D160='[1]Index Composition'!D160</f>
-        <v>1</v>
-      </c>
-      <c r="J160" t="b">
-        <f>E160='[1]Index Composition'!E160</f>
-        <v>1</v>
-      </c>
-      <c r="K160" t="b">
-        <f>F160='[1]Index Composition'!F160</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -10023,20 +5917,8 @@
       <c r="H161" t="s">
         <v>417</v>
       </c>
-      <c r="I161" t="b">
-        <f>D161='[1]Index Composition'!D161</f>
-        <v>1</v>
-      </c>
-      <c r="J161" t="b">
-        <f>E161='[1]Index Composition'!E161</f>
-        <v>1</v>
-      </c>
-      <c r="K161" t="b">
-        <f>F161='[1]Index Composition'!F161</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -10061,20 +5943,8 @@
       <c r="H162" t="s">
         <v>419</v>
       </c>
-      <c r="I162" t="b">
-        <f>D162='[1]Index Composition'!D162</f>
-        <v>1</v>
-      </c>
-      <c r="J162" t="b">
-        <f>E162='[1]Index Composition'!E162</f>
-        <v>1</v>
-      </c>
-      <c r="K162" t="b">
-        <f>F162='[1]Index Composition'!F162</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -10099,20 +5969,8 @@
       <c r="H163" t="s">
         <v>414</v>
       </c>
-      <c r="I163" t="b">
-        <f>D163='[1]Index Composition'!D163</f>
-        <v>1</v>
-      </c>
-      <c r="J163" t="b">
-        <f>E163='[1]Index Composition'!E163</f>
-        <v>1</v>
-      </c>
-      <c r="K163" t="b">
-        <f>F163='[1]Index Composition'!F163</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -10137,20 +5995,8 @@
       <c r="H164" t="s">
         <v>414</v>
       </c>
-      <c r="I164" t="b">
-        <f>D164='[1]Index Composition'!D164</f>
-        <v>1</v>
-      </c>
-      <c r="J164" t="b">
-        <f>E164='[1]Index Composition'!E164</f>
-        <v>1</v>
-      </c>
-      <c r="K164" t="b">
-        <f>F164='[1]Index Composition'!F164</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -10175,20 +6021,8 @@
       <c r="H165" t="s">
         <v>416</v>
       </c>
-      <c r="I165" t="b">
-        <f>D165='[1]Index Composition'!D165</f>
-        <v>1</v>
-      </c>
-      <c r="J165" t="b">
-        <f>E165='[1]Index Composition'!E165</f>
-        <v>1</v>
-      </c>
-      <c r="K165" t="b">
-        <f>F165='[1]Index Composition'!F165</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -10213,20 +6047,8 @@
       <c r="H166" t="s">
         <v>419</v>
       </c>
-      <c r="I166" t="b">
-        <f>D166='[1]Index Composition'!D166</f>
-        <v>1</v>
-      </c>
-      <c r="J166" t="b">
-        <f>E166='[1]Index Composition'!E166</f>
-        <v>1</v>
-      </c>
-      <c r="K166" t="b">
-        <f>F166='[1]Index Composition'!F166</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -10251,20 +6073,8 @@
       <c r="H167" t="s">
         <v>414</v>
       </c>
-      <c r="I167" t="b">
-        <f>D167='[1]Index Composition'!D167</f>
-        <v>1</v>
-      </c>
-      <c r="J167" t="b">
-        <f>E167='[1]Index Composition'!E167</f>
-        <v>1</v>
-      </c>
-      <c r="K167" t="b">
-        <f>F167='[1]Index Composition'!F167</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -10289,20 +6099,8 @@
       <c r="H168" t="s">
         <v>414</v>
       </c>
-      <c r="I168" t="b">
-        <f>D168='[1]Index Composition'!D168</f>
-        <v>1</v>
-      </c>
-      <c r="J168" t="b">
-        <f>E168='[1]Index Composition'!E168</f>
-        <v>1</v>
-      </c>
-      <c r="K168" t="b">
-        <f>F168='[1]Index Composition'!F168</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -10327,20 +6125,8 @@
       <c r="H169" t="s">
         <v>416</v>
       </c>
-      <c r="I169" t="b">
-        <f>D169='[1]Index Composition'!D169</f>
-        <v>1</v>
-      </c>
-      <c r="J169" t="b">
-        <f>E169='[1]Index Composition'!E169</f>
-        <v>1</v>
-      </c>
-      <c r="K169" t="b">
-        <f>F169='[1]Index Composition'!F169</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -10365,20 +6151,8 @@
       <c r="H170" t="s">
         <v>416</v>
       </c>
-      <c r="I170" t="b">
-        <f>D170='[1]Index Composition'!D170</f>
-        <v>1</v>
-      </c>
-      <c r="J170" t="b">
-        <f>E170='[1]Index Composition'!E170</f>
-        <v>1</v>
-      </c>
-      <c r="K170" t="b">
-        <f>F170='[1]Index Composition'!F170</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -10403,20 +6177,8 @@
       <c r="H171" t="s">
         <v>416</v>
       </c>
-      <c r="I171" t="b">
-        <f>D171='[1]Index Composition'!D171</f>
-        <v>1</v>
-      </c>
-      <c r="J171" t="b">
-        <f>E171='[1]Index Composition'!E171</f>
-        <v>1</v>
-      </c>
-      <c r="K171" t="b">
-        <f>F171='[1]Index Composition'!F171</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -10441,20 +6203,8 @@
       <c r="H172" t="s">
         <v>416</v>
       </c>
-      <c r="I172" t="b">
-        <f>D172='[1]Index Composition'!D172</f>
-        <v>1</v>
-      </c>
-      <c r="J172" t="b">
-        <f>E172='[1]Index Composition'!E172</f>
-        <v>1</v>
-      </c>
-      <c r="K172" t="b">
-        <f>F172='[1]Index Composition'!F172</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -10479,20 +6229,8 @@
       <c r="H173" t="s">
         <v>414</v>
       </c>
-      <c r="I173" t="b">
-        <f>D173='[1]Index Composition'!D173</f>
-        <v>1</v>
-      </c>
-      <c r="J173" t="b">
-        <f>E173='[1]Index Composition'!E173</f>
-        <v>1</v>
-      </c>
-      <c r="K173" t="b">
-        <f>F173='[1]Index Composition'!F173</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -10517,20 +6255,8 @@
       <c r="H174" t="s">
         <v>414</v>
       </c>
-      <c r="I174" t="b">
-        <f>D174='[1]Index Composition'!D174</f>
-        <v>1</v>
-      </c>
-      <c r="J174" t="b">
-        <f>E174='[1]Index Composition'!E174</f>
-        <v>1</v>
-      </c>
-      <c r="K174" t="b">
-        <f>F174='[1]Index Composition'!F174</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -10555,20 +6281,8 @@
       <c r="H175" t="s">
         <v>417</v>
       </c>
-      <c r="I175" t="b">
-        <f>D175='[1]Index Composition'!D175</f>
-        <v>1</v>
-      </c>
-      <c r="J175" t="b">
-        <f>E175='[1]Index Composition'!E175</f>
-        <v>1</v>
-      </c>
-      <c r="K175" t="b">
-        <f>F175='[1]Index Composition'!F175</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -10593,20 +6307,8 @@
       <c r="H176" t="s">
         <v>414</v>
       </c>
-      <c r="I176" t="b">
-        <f>D176='[1]Index Composition'!D176</f>
-        <v>1</v>
-      </c>
-      <c r="J176" t="b">
-        <f>E176='[1]Index Composition'!E176</f>
-        <v>1</v>
-      </c>
-      <c r="K176" t="b">
-        <f>F176='[1]Index Composition'!F176</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -10631,20 +6333,8 @@
       <c r="H177" t="s">
         <v>414</v>
       </c>
-      <c r="I177" t="b">
-        <f>D177='[1]Index Composition'!D177</f>
-        <v>1</v>
-      </c>
-      <c r="J177" t="b">
-        <f>E177='[1]Index Composition'!E177</f>
-        <v>1</v>
-      </c>
-      <c r="K177" t="b">
-        <f>F177='[1]Index Composition'!F177</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -10669,20 +6359,8 @@
       <c r="H178" t="s">
         <v>414</v>
       </c>
-      <c r="I178" t="b">
-        <f>D178='[1]Index Composition'!D178</f>
-        <v>1</v>
-      </c>
-      <c r="J178" t="b">
-        <f>E178='[1]Index Composition'!E178</f>
-        <v>1</v>
-      </c>
-      <c r="K178" t="b">
-        <f>F178='[1]Index Composition'!F178</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -10707,20 +6385,8 @@
       <c r="H179" t="s">
         <v>414</v>
       </c>
-      <c r="I179" t="b">
-        <f>D179='[1]Index Composition'!D179</f>
-        <v>1</v>
-      </c>
-      <c r="J179" t="b">
-        <f>E179='[1]Index Composition'!E179</f>
-        <v>1</v>
-      </c>
-      <c r="K179" t="b">
-        <f>F179='[1]Index Composition'!F179</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -10745,20 +6411,8 @@
       <c r="H180" t="s">
         <v>416</v>
       </c>
-      <c r="I180" t="b">
-        <f>D180='[1]Index Composition'!D180</f>
-        <v>1</v>
-      </c>
-      <c r="J180" t="b">
-        <f>E180='[1]Index Composition'!E180</f>
-        <v>1</v>
-      </c>
-      <c r="K180" t="b">
-        <f>F180='[1]Index Composition'!F180</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -10783,20 +6437,8 @@
       <c r="H181" t="s">
         <v>415</v>
       </c>
-      <c r="I181" t="b">
-        <f>D181='[1]Index Composition'!D181</f>
-        <v>1</v>
-      </c>
-      <c r="J181" t="b">
-        <f>E181='[1]Index Composition'!E181</f>
-        <v>1</v>
-      </c>
-      <c r="K181" t="b">
-        <f>F181='[1]Index Composition'!F181</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -10821,20 +6463,8 @@
       <c r="H182" t="s">
         <v>414</v>
       </c>
-      <c r="I182" t="b">
-        <f>D182='[1]Index Composition'!D182</f>
-        <v>1</v>
-      </c>
-      <c r="J182" t="b">
-        <f>E182='[1]Index Composition'!E182</f>
-        <v>1</v>
-      </c>
-      <c r="K182" t="b">
-        <f>F182='[1]Index Composition'!F182</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -10859,20 +6489,8 @@
       <c r="H183" t="s">
         <v>414</v>
       </c>
-      <c r="I183" t="b">
-        <f>D183='[1]Index Composition'!D183</f>
-        <v>1</v>
-      </c>
-      <c r="J183" t="b">
-        <f>E183='[1]Index Composition'!E183</f>
-        <v>1</v>
-      </c>
-      <c r="K183" t="b">
-        <f>F183='[1]Index Composition'!F183</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -10897,20 +6515,8 @@
       <c r="H184" t="s">
         <v>416</v>
       </c>
-      <c r="I184" t="b">
-        <f>D184='[1]Index Composition'!D184</f>
-        <v>1</v>
-      </c>
-      <c r="J184" t="b">
-        <f>E184='[1]Index Composition'!E184</f>
-        <v>1</v>
-      </c>
-      <c r="K184" t="b">
-        <f>F184='[1]Index Composition'!F184</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -10935,20 +6541,8 @@
       <c r="H185" t="s">
         <v>414</v>
       </c>
-      <c r="I185" t="b">
-        <f>D185='[1]Index Composition'!D185</f>
-        <v>1</v>
-      </c>
-      <c r="J185" t="b">
-        <f>E185='[1]Index Composition'!E185</f>
-        <v>1</v>
-      </c>
-      <c r="K185" t="b">
-        <f>F185='[1]Index Composition'!F185</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -10973,20 +6567,8 @@
       <c r="H186" t="s">
         <v>417</v>
       </c>
-      <c r="I186" t="b">
-        <f>D186='[1]Index Composition'!D186</f>
-        <v>1</v>
-      </c>
-      <c r="J186" t="b">
-        <f>E186='[1]Index Composition'!E186</f>
-        <v>1</v>
-      </c>
-      <c r="K186" t="b">
-        <f>F186='[1]Index Composition'!F186</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -11011,20 +6593,8 @@
       <c r="H187" t="s">
         <v>414</v>
       </c>
-      <c r="I187" t="b">
-        <f>D187='[1]Index Composition'!D187</f>
-        <v>1</v>
-      </c>
-      <c r="J187" t="b">
-        <f>E187='[1]Index Composition'!E187</f>
-        <v>1</v>
-      </c>
-      <c r="K187" t="b">
-        <f>F187='[1]Index Composition'!F187</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -11049,20 +6619,8 @@
       <c r="H188" t="s">
         <v>414</v>
       </c>
-      <c r="I188" t="b">
-        <f>D188='[1]Index Composition'!D188</f>
-        <v>1</v>
-      </c>
-      <c r="J188" t="b">
-        <f>E188='[1]Index Composition'!E188</f>
-        <v>1</v>
-      </c>
-      <c r="K188" t="b">
-        <f>F188='[1]Index Composition'!F188</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -11087,20 +6645,8 @@
       <c r="H189" t="s">
         <v>416</v>
       </c>
-      <c r="I189" t="b">
-        <f>D189='[1]Index Composition'!D189</f>
-        <v>1</v>
-      </c>
-      <c r="J189" t="b">
-        <f>E189='[1]Index Composition'!E189</f>
-        <v>1</v>
-      </c>
-      <c r="K189" t="b">
-        <f>F189='[1]Index Composition'!F189</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -11125,20 +6671,8 @@
       <c r="H190" t="s">
         <v>419</v>
       </c>
-      <c r="I190" t="b">
-        <f>D190='[1]Index Composition'!D190</f>
-        <v>1</v>
-      </c>
-      <c r="J190" t="b">
-        <f>E190='[1]Index Composition'!E190</f>
-        <v>1</v>
-      </c>
-      <c r="K190" t="b">
-        <f>F190='[1]Index Composition'!F190</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -11163,20 +6697,8 @@
       <c r="H191" t="s">
         <v>414</v>
       </c>
-      <c r="I191" t="b">
-        <f>D191='[1]Index Composition'!D191</f>
-        <v>1</v>
-      </c>
-      <c r="J191" t="b">
-        <f>E191='[1]Index Composition'!E191</f>
-        <v>1</v>
-      </c>
-      <c r="K191" t="b">
-        <f>F191='[1]Index Composition'!F191</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -11201,20 +6723,8 @@
       <c r="H192" t="s">
         <v>416</v>
       </c>
-      <c r="I192" t="b">
-        <f>D192='[1]Index Composition'!D192</f>
-        <v>1</v>
-      </c>
-      <c r="J192" t="b">
-        <f>E192='[1]Index Composition'!E192</f>
-        <v>1</v>
-      </c>
-      <c r="K192" t="b">
-        <f>F192='[1]Index Composition'!F192</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -11239,20 +6749,8 @@
       <c r="H193" t="s">
         <v>419</v>
       </c>
-      <c r="I193" t="b">
-        <f>D193='[1]Index Composition'!D193</f>
-        <v>1</v>
-      </c>
-      <c r="J193" t="b">
-        <f>E193='[1]Index Composition'!E193</f>
-        <v>1</v>
-      </c>
-      <c r="K193" t="b">
-        <f>F193='[1]Index Composition'!F193</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -11277,20 +6775,8 @@
       <c r="H194" t="s">
         <v>416</v>
       </c>
-      <c r="I194" t="b">
-        <f>D194='[1]Index Composition'!D194</f>
-        <v>1</v>
-      </c>
-      <c r="J194" t="b">
-        <f>E194='[1]Index Composition'!E194</f>
-        <v>1</v>
-      </c>
-      <c r="K194" t="b">
-        <f>F194='[1]Index Composition'!F194</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -11315,36 +6801,21 @@
       <c r="H195" t="s">
         <v>414</v>
       </c>
-      <c r="I195" t="b">
-        <f>D195='[1]Index Composition'!D195</f>
-        <v>1</v>
-      </c>
-      <c r="J195" t="b">
-        <f>E195='[1]Index Composition'!E195</f>
-        <v>1</v>
-      </c>
-      <c r="K195" t="b">
-        <f>F195='[1]Index Composition'!F195</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11355,7 +6826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -11366,7 +6837,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -11377,7 +6848,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -11388,7 +6859,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -11399,7 +6870,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -11412,21 +6883,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11437,7 +6905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>421</v>
       </c>
@@ -11448,7 +6916,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -11459,7 +6927,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>423</v>
       </c>
@@ -11470,7 +6938,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>424</v>
       </c>
@@ -11481,7 +6949,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>425</v>
       </c>
@@ -11492,7 +6960,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>426</v>
       </c>
@@ -11503,7 +6971,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>427</v>
       </c>
@@ -11514,7 +6982,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>428</v>
       </c>
@@ -11525,7 +6993,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>429</v>
       </c>
@@ -11536,7 +7004,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>430</v>
       </c>
@@ -11547,7 +7015,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>431</v>
       </c>
@@ -11558,7 +7026,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>432</v>
       </c>
@@ -11569,7 +7037,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>433</v>
       </c>
@@ -11580,7 +7048,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>434</v>
       </c>
@@ -11591,7 +7059,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>435</v>
       </c>
@@ -11604,8 +7072,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>